--- a/2-Empirical-Evidence/raw_data/Louisiana.xlsx
+++ b/2-Empirical-Evidence/raw_data/Louisiana.xlsx
@@ -358,7 +358,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="296">
   <si>
     <t>Local Area Unemployment Statistics</t>
   </si>
@@ -366,7 +366,7 @@
     <t>Years:</t>
   </si>
   <si>
-    <t>1990 to 2020</t>
+    <t>1990 to 2024</t>
   </si>
   <si>
     <t>Series ID</t>
@@ -494,6 +494,22 @@
   <si>
     <t>Annual
 2020</t>
+  </si>
+  <si>
+    <t>Annual
+2021</t>
+  </si>
+  <si>
+    <t>Annual
+2022</t>
+  </si>
+  <si>
+    <t>Annual
+2023</t>
+  </si>
+  <si>
+    <t>Annual
+2024</t>
   </si>
   <si>
     <t>LAUCN220010000000003</t>
@@ -1655,10 +1671,22 @@
       <c r="AF4" t="s" s="3">
         <v>34</v>
       </c>
+      <c r="AG4" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="AH4" t="s" s="3">
+        <v>36</v>
+      </c>
+      <c r="AI4" t="s" s="3">
+        <v>37</v>
+      </c>
+      <c r="AJ4" t="s" s="3">
+        <v>38</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="7">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B5" t="n" s="10">
         <v>6.4</v>
@@ -1753,10 +1781,20 @@
       <c r="AF5" t="n" s="10">
         <v>7.7</v>
       </c>
+      <c r="AG5" t="n" s="10">
+        <v>5.1</v>
+      </c>
+      <c r="AH5" t="n" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="AI5" t="n" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="AJ5"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="7">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B6" t="n" s="8">
         <v>1392.0</v>
@@ -1851,10 +1889,20 @@
       <c r="AF6" t="n" s="8">
         <v>1789.0</v>
       </c>
+      <c r="AG6" t="n" s="8">
+        <v>1200.0</v>
+      </c>
+      <c r="AH6" t="n" s="8">
+        <v>865.0</v>
+      </c>
+      <c r="AI6" t="n" s="8">
+        <v>886.0</v>
+      </c>
+      <c r="AJ6"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="7">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B7" t="n" s="8">
         <v>20317.0</v>
@@ -1949,10 +1997,20 @@
       <c r="AF7" t="n" s="8">
         <v>21408.0</v>
       </c>
+      <c r="AG7" t="n" s="8">
+        <v>22228.0</v>
+      </c>
+      <c r="AH7" t="n" s="8">
+        <v>22861.0</v>
+      </c>
+      <c r="AI7" t="n" s="8">
+        <v>22974.0</v>
+      </c>
+      <c r="AJ7"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="7">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B8" t="n" s="8">
         <v>21709.0</v>
@@ -2047,10 +2105,20 @@
       <c r="AF8" t="n" s="8">
         <v>23197.0</v>
       </c>
+      <c r="AG8" t="n" s="8">
+        <v>23428.0</v>
+      </c>
+      <c r="AH8" t="n" s="8">
+        <v>23726.0</v>
+      </c>
+      <c r="AI8" t="n" s="8">
+        <v>23860.0</v>
+      </c>
+      <c r="AJ8"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="7">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B9" t="n" s="10">
         <v>9.9</v>
@@ -2145,10 +2213,20 @@
       <c r="AF9" t="n" s="10">
         <v>9.6</v>
       </c>
+      <c r="AG9" t="n" s="10">
+        <v>5.7</v>
+      </c>
+      <c r="AH9" t="n" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="AI9" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="AJ9"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="7">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B10" t="n" s="8">
         <v>743.0</v>
@@ -2243,10 +2321,20 @@
       <c r="AF10" t="n" s="8">
         <v>804.0</v>
       </c>
+      <c r="AG10" t="n" s="8">
+        <v>459.0</v>
+      </c>
+      <c r="AH10" t="n" s="8">
+        <v>336.0</v>
+      </c>
+      <c r="AI10" t="n" s="8">
+        <v>342.0</v>
+      </c>
+      <c r="AJ10"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="7">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B11" t="n" s="8">
         <v>6783.0</v>
@@ -2341,10 +2429,20 @@
       <c r="AF11" t="n" s="8">
         <v>7545.0</v>
       </c>
+      <c r="AG11" t="n" s="8">
+        <v>7596.0</v>
+      </c>
+      <c r="AH11" t="n" s="8">
+        <v>7784.0</v>
+      </c>
+      <c r="AI11" t="n" s="8">
+        <v>7801.0</v>
+      </c>
+      <c r="AJ11"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="7">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B12" t="n" s="8">
         <v>7526.0</v>
@@ -2439,10 +2537,20 @@
       <c r="AF12" t="n" s="8">
         <v>8349.0</v>
       </c>
+      <c r="AG12" t="n" s="8">
+        <v>8055.0</v>
+      </c>
+      <c r="AH12" t="n" s="8">
+        <v>8120.0</v>
+      </c>
+      <c r="AI12" t="n" s="8">
+        <v>8143.0</v>
+      </c>
+      <c r="AJ12"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="7">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B13" t="n" s="10">
         <v>6.5</v>
@@ -2537,10 +2645,20 @@
       <c r="AF13" t="n" s="10">
         <v>7.0</v>
       </c>
+      <c r="AG13" t="n" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="AH13" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AI13" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AJ13"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="7">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B14" t="n" s="8">
         <v>1763.0</v>
@@ -2635,10 +2753,20 @@
       <c r="AF14" t="n" s="8">
         <v>4503.0</v>
       </c>
+      <c r="AG14" t="n" s="8">
+        <v>2792.0</v>
+      </c>
+      <c r="AH14" t="n" s="8">
+        <v>1965.0</v>
+      </c>
+      <c r="AI14" t="n" s="8">
+        <v>1986.0</v>
+      </c>
+      <c r="AJ14"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="7">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B15" t="n" s="8">
         <v>25391.0</v>
@@ -2733,10 +2861,20 @@
       <c r="AF15" t="n" s="8">
         <v>59474.0</v>
       </c>
+      <c r="AG15" t="n" s="8">
+        <v>62265.0</v>
+      </c>
+      <c r="AH15" t="n" s="8">
+        <v>64655.0</v>
+      </c>
+      <c r="AI15" t="n" s="8">
+        <v>64952.0</v>
+      </c>
+      <c r="AJ15"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="7">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B16" t="n" s="8">
         <v>27154.0</v>
@@ -2831,10 +2969,20 @@
       <c r="AF16" t="n" s="8">
         <v>63977.0</v>
       </c>
+      <c r="AG16" t="n" s="8">
+        <v>65057.0</v>
+      </c>
+      <c r="AH16" t="n" s="8">
+        <v>66620.0</v>
+      </c>
+      <c r="AI16" t="n" s="8">
+        <v>66938.0</v>
+      </c>
+      <c r="AJ16"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="7">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B17" t="n" s="10">
         <v>6.6</v>
@@ -2929,10 +3077,20 @@
       <c r="AF17" t="n" s="10">
         <v>10.6</v>
       </c>
+      <c r="AG17" t="n" s="10">
+        <v>7.1</v>
+      </c>
+      <c r="AH17" t="n" s="10">
+        <v>4.6</v>
+      </c>
+      <c r="AI17" t="n" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="AJ17"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="7">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B18" t="n" s="8">
         <v>616.0</v>
@@ -3027,10 +3185,20 @@
       <c r="AF18" t="n" s="8">
         <v>923.0</v>
       </c>
+      <c r="AG18" t="n" s="8">
+        <v>629.0</v>
+      </c>
+      <c r="AH18" t="n" s="8">
+        <v>401.0</v>
+      </c>
+      <c r="AI18" t="n" s="8">
+        <v>381.0</v>
+      </c>
+      <c r="AJ18"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="7">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B19" t="n" s="8">
         <v>8687.0</v>
@@ -3125,10 +3293,20 @@
       <c r="AF19" t="n" s="8">
         <v>7803.0</v>
       </c>
+      <c r="AG19" t="n" s="8">
+        <v>8195.0</v>
+      </c>
+      <c r="AH19" t="n" s="8">
+        <v>8333.0</v>
+      </c>
+      <c r="AI19" t="n" s="8">
+        <v>8402.0</v>
+      </c>
+      <c r="AJ19"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="7">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B20" t="n" s="8">
         <v>9303.0</v>
@@ -3223,10 +3401,20 @@
       <c r="AF20" t="n" s="8">
         <v>8726.0</v>
       </c>
+      <c r="AG20" t="n" s="8">
+        <v>8824.0</v>
+      </c>
+      <c r="AH20" t="n" s="8">
+        <v>8734.0</v>
+      </c>
+      <c r="AI20" t="n" s="8">
+        <v>8783.0</v>
+      </c>
+      <c r="AJ20"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="7">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B21" t="n" s="10">
         <v>9.8</v>
@@ -3321,10 +3509,20 @@
       <c r="AF21" t="n" s="10">
         <v>8.4</v>
       </c>
+      <c r="AG21" t="n" s="10">
+        <v>5.4</v>
+      </c>
+      <c r="AH21" t="n" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="AI21" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="AJ21"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="7">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B22" t="n" s="8">
         <v>1415.0</v>
@@ -3419,10 +3617,20 @@
       <c r="AF22" t="n" s="8">
         <v>1248.0</v>
       </c>
+      <c r="AG22" t="n" s="8">
+        <v>794.0</v>
+      </c>
+      <c r="AH22" t="n" s="8">
+        <v>595.0</v>
+      </c>
+      <c r="AI22" t="n" s="8">
+        <v>611.0</v>
+      </c>
+      <c r="AJ22"/>
     </row>
     <row r="23">
       <c r="A23" t="s" s="7">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B23" t="n" s="8">
         <v>13068.0</v>
@@ -3517,10 +3725,20 @@
       <c r="AF23" t="n" s="8">
         <v>13602.0</v>
       </c>
+      <c r="AG23" t="n" s="8">
+        <v>13838.0</v>
+      </c>
+      <c r="AH23" t="n" s="8">
+        <v>13766.0</v>
+      </c>
+      <c r="AI23" t="n" s="8">
+        <v>13869.0</v>
+      </c>
+      <c r="AJ23"/>
     </row>
     <row r="24">
       <c r="A24" t="s" s="7">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B24" t="n" s="8">
         <v>14483.0</v>
@@ -3615,10 +3833,20 @@
       <c r="AF24" t="n" s="8">
         <v>14850.0</v>
       </c>
+      <c r="AG24" t="n" s="8">
+        <v>14632.0</v>
+      </c>
+      <c r="AH24" t="n" s="8">
+        <v>14361.0</v>
+      </c>
+      <c r="AI24" t="n" s="8">
+        <v>14480.0</v>
+      </c>
+      <c r="AJ24"/>
     </row>
     <row r="25">
       <c r="A25" t="s" s="7">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B25" t="n" s="10">
         <v>6.3</v>
@@ -3713,10 +3941,20 @@
       <c r="AF25" t="n" s="10">
         <v>7.1</v>
       </c>
+      <c r="AG25" t="n" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="AH25" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AI25" t="n" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="AJ25"/>
     </row>
     <row r="26">
       <c r="A26" t="s" s="7">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B26" t="n" s="8">
         <v>722.0</v>
@@ -3811,10 +4049,20 @@
       <c r="AF26" t="n" s="8">
         <v>1013.0</v>
       </c>
+      <c r="AG26" t="n" s="8">
+        <v>622.0</v>
+      </c>
+      <c r="AH26" t="n" s="8">
+        <v>493.0</v>
+      </c>
+      <c r="AI26" t="n" s="8">
+        <v>521.0</v>
+      </c>
+      <c r="AJ26"/>
     </row>
     <row r="27">
       <c r="A27" t="s" s="7">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B27" t="n" s="8">
         <v>10828.0</v>
@@ -3909,10 +4157,20 @@
       <c r="AF27" t="n" s="8">
         <v>13303.0</v>
       </c>
+      <c r="AG27" t="n" s="8">
+        <v>13862.0</v>
+      </c>
+      <c r="AH27" t="n" s="8">
+        <v>14055.0</v>
+      </c>
+      <c r="AI27" t="n" s="8">
+        <v>14030.0</v>
+      </c>
+      <c r="AJ27"/>
     </row>
     <row r="28">
       <c r="A28" t="s" s="7">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B28" t="n" s="8">
         <v>11550.0</v>
@@ -4007,10 +4265,20 @@
       <c r="AF28" t="n" s="8">
         <v>14316.0</v>
       </c>
+      <c r="AG28" t="n" s="8">
+        <v>14484.0</v>
+      </c>
+      <c r="AH28" t="n" s="8">
+        <v>14548.0</v>
+      </c>
+      <c r="AI28" t="n" s="8">
+        <v>14551.0</v>
+      </c>
+      <c r="AJ28"/>
     </row>
     <row r="29">
       <c r="A29" t="s" s="7">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B29" t="n" s="10">
         <v>7.1</v>
@@ -4105,10 +4373,20 @@
       <c r="AF29" t="n" s="10">
         <v>8.1</v>
       </c>
+      <c r="AG29" t="n" s="10">
+        <v>5.9</v>
+      </c>
+      <c r="AH29" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="AI29" t="n" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="AJ29"/>
     </row>
     <row r="30">
       <c r="A30" t="s" s="7">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B30" t="n" s="8">
         <v>427.0</v>
@@ -4203,10 +4481,20 @@
       <c r="AF30" t="n" s="8">
         <v>433.0</v>
       </c>
+      <c r="AG30" t="n" s="8">
+        <v>304.0</v>
+      </c>
+      <c r="AH30" t="n" s="8">
+        <v>216.0</v>
+      </c>
+      <c r="AI30" t="n" s="8">
+        <v>221.0</v>
+      </c>
+      <c r="AJ30"/>
     </row>
     <row r="31">
       <c r="A31" t="s" s="7">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B31" t="n" s="8">
         <v>5561.0</v>
@@ -4301,10 +4589,20 @@
       <c r="AF31" t="n" s="8">
         <v>4914.0</v>
       </c>
+      <c r="AG31" t="n" s="8">
+        <v>4891.0</v>
+      </c>
+      <c r="AH31" t="n" s="8">
+        <v>4955.0</v>
+      </c>
+      <c r="AI31" t="n" s="8">
+        <v>4880.0</v>
+      </c>
+      <c r="AJ31"/>
     </row>
     <row r="32">
       <c r="A32" t="s" s="7">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B32" t="n" s="8">
         <v>5988.0</v>
@@ -4399,10 +4697,20 @@
       <c r="AF32" t="n" s="8">
         <v>5347.0</v>
       </c>
+      <c r="AG32" t="n" s="8">
+        <v>5195.0</v>
+      </c>
+      <c r="AH32" t="n" s="8">
+        <v>5171.0</v>
+      </c>
+      <c r="AI32" t="n" s="8">
+        <v>5101.0</v>
+      </c>
+      <c r="AJ32"/>
     </row>
     <row r="33">
       <c r="A33" t="s" s="7">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B33" t="n" s="10">
         <v>6.1</v>
@@ -4497,10 +4805,20 @@
       <c r="AF33" t="n" s="10">
         <v>6.6</v>
       </c>
+      <c r="AG33" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="AH33" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AI33" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AJ33"/>
     </row>
     <row r="34">
       <c r="A34" t="s" s="7">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B34" t="n" s="8">
         <v>2430.0</v>
@@ -4595,10 +4913,20 @@
       <c r="AF34" t="n" s="8">
         <v>3751.0</v>
       </c>
+      <c r="AG34" t="n" s="8">
+        <v>2277.0</v>
+      </c>
+      <c r="AH34" t="n" s="8">
+        <v>1731.0</v>
+      </c>
+      <c r="AI34" t="n" s="8">
+        <v>1875.0</v>
+      </c>
+      <c r="AJ34"/>
     </row>
     <row r="35">
       <c r="A35" t="s" s="7">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B35" t="n" s="8">
         <v>37730.0</v>
@@ -4693,10 +5021,20 @@
       <c r="AF35" t="n" s="8">
         <v>52730.0</v>
       </c>
+      <c r="AG35" t="n" s="8">
+        <v>54555.0</v>
+      </c>
+      <c r="AH35" t="n" s="8">
+        <v>55986.0</v>
+      </c>
+      <c r="AI35" t="n" s="8">
+        <v>56104.0</v>
+      </c>
+      <c r="AJ35"/>
     </row>
     <row r="36">
       <c r="A36" t="s" s="7">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B36" t="n" s="8">
         <v>40160.0</v>
@@ -4791,10 +5129,20 @@
       <c r="AF36" t="n" s="8">
         <v>56481.0</v>
       </c>
+      <c r="AG36" t="n" s="8">
+        <v>56832.0</v>
+      </c>
+      <c r="AH36" t="n" s="8">
+        <v>57717.0</v>
+      </c>
+      <c r="AI36" t="n" s="8">
+        <v>57979.0</v>
+      </c>
+      <c r="AJ36"/>
     </row>
     <row r="37">
       <c r="A37" t="s" s="7">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B37" t="n" s="10">
         <v>6.3</v>
@@ -4889,10 +5237,20 @@
       <c r="AF37" t="n" s="10">
         <v>9.4</v>
       </c>
+      <c r="AG37" t="n" s="10">
+        <v>6.3</v>
+      </c>
+      <c r="AH37" t="n" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="AI37" t="n" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="AJ37"/>
     </row>
     <row r="38">
       <c r="A38" t="s" s="7">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B38" t="n" s="8">
         <v>7199.0</v>
@@ -4987,10 +5345,20 @@
       <c r="AF38" t="n" s="8">
         <v>9495.0</v>
       </c>
+      <c r="AG38" t="n" s="8">
+        <v>6345.0</v>
+      </c>
+      <c r="AH38" t="n" s="8">
+        <v>4128.0</v>
+      </c>
+      <c r="AI38" t="n" s="8">
+        <v>4111.0</v>
+      </c>
+      <c r="AJ38"/>
     </row>
     <row r="39">
       <c r="A39" t="s" s="7">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B39" t="n" s="8">
         <v>106292.0</v>
@@ -5085,10 +5453,20 @@
       <c r="AF39" t="n" s="8">
         <v>91444.0</v>
       </c>
+      <c r="AG39" t="n" s="8">
+        <v>94629.0</v>
+      </c>
+      <c r="AH39" t="n" s="8">
+        <v>97072.0</v>
+      </c>
+      <c r="AI39" t="n" s="8">
+        <v>97264.0</v>
+      </c>
+      <c r="AJ39"/>
     </row>
     <row r="40">
       <c r="A40" t="s" s="7">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B40" t="n" s="8">
         <v>113491.0</v>
@@ -5183,10 +5561,20 @@
       <c r="AF40" t="n" s="8">
         <v>100939.0</v>
       </c>
+      <c r="AG40" t="n" s="8">
+        <v>100974.0</v>
+      </c>
+      <c r="AH40" t="n" s="8">
+        <v>101200.0</v>
+      </c>
+      <c r="AI40" t="n" s="8">
+        <v>101375.0</v>
+      </c>
+      <c r="AJ40"/>
     </row>
     <row r="41">
       <c r="A41" t="s" s="7">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B41" t="n" s="10">
         <v>5.8</v>
@@ -5281,10 +5669,20 @@
       <c r="AF41" t="n" s="10">
         <v>9.5</v>
       </c>
+      <c r="AG41" t="n" s="10">
+        <v>5.7</v>
+      </c>
+      <c r="AH41" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AI41" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AJ41"/>
     </row>
     <row r="42">
       <c r="A42" t="s" s="7">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B42" t="n" s="8">
         <v>4500.0</v>
@@ -5379,10 +5777,20 @@
       <c r="AF42" t="n" s="8">
         <v>9176.0</v>
       </c>
+      <c r="AG42" t="n" s="8">
+        <v>5406.0</v>
+      </c>
+      <c r="AH42" t="n" s="8">
+        <v>3220.0</v>
+      </c>
+      <c r="AI42" t="n" s="8">
+        <v>3137.0</v>
+      </c>
+      <c r="AJ42"/>
     </row>
     <row r="43">
       <c r="A43" t="s" s="7">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B43" t="n" s="8">
         <v>73614.0</v>
@@ -5477,10 +5885,20 @@
       <c r="AF43" t="n" s="8">
         <v>87676.0</v>
       </c>
+      <c r="AG43" t="n" s="8">
+        <v>89178.0</v>
+      </c>
+      <c r="AH43" t="n" s="8">
+        <v>88640.0</v>
+      </c>
+      <c r="AI43" t="n" s="8">
+        <v>87920.0</v>
+      </c>
+      <c r="AJ43"/>
     </row>
     <row r="44">
       <c r="A44" t="s" s="7">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B44" t="n" s="8">
         <v>78114.0</v>
@@ -5575,10 +5993,20 @@
       <c r="AF44" t="n" s="8">
         <v>96852.0</v>
       </c>
+      <c r="AG44" t="n" s="8">
+        <v>94584.0</v>
+      </c>
+      <c r="AH44" t="n" s="8">
+        <v>91860.0</v>
+      </c>
+      <c r="AI44" t="n" s="8">
+        <v>91057.0</v>
+      </c>
+      <c r="AJ44"/>
     </row>
     <row r="45">
       <c r="A45" t="s" s="7">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B45" t="n" s="10">
         <v>7.8</v>
@@ -5673,10 +6101,20 @@
       <c r="AF45" t="n" s="10">
         <v>7.8</v>
       </c>
+      <c r="AG45" t="n" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="AH45" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AI45" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="AJ45"/>
     </row>
     <row r="46">
       <c r="A46" t="s" s="7">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B46" t="n" s="8">
         <v>305.0</v>
@@ -5771,10 +6209,20 @@
       <c r="AF46" t="n" s="8">
         <v>282.0</v>
       </c>
+      <c r="AG46" t="n" s="8">
+        <v>177.0</v>
+      </c>
+      <c r="AH46" t="n" s="8">
+        <v>139.0</v>
+      </c>
+      <c r="AI46" t="n" s="8">
+        <v>146.0</v>
+      </c>
+      <c r="AJ46"/>
     </row>
     <row r="47">
       <c r="A47" t="s" s="7">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B47" t="n" s="8">
         <v>3607.0</v>
@@ -5869,10 +6317,20 @@
       <c r="AF47" t="n" s="8">
         <v>3347.0</v>
       </c>
+      <c r="AG47" t="n" s="8">
+        <v>3498.0</v>
+      </c>
+      <c r="AH47" t="n" s="8">
+        <v>3522.0</v>
+      </c>
+      <c r="AI47" t="n" s="8">
+        <v>3544.0</v>
+      </c>
+      <c r="AJ47"/>
     </row>
     <row r="48">
       <c r="A48" t="s" s="7">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B48" t="n" s="8">
         <v>3912.0</v>
@@ -5967,10 +6425,20 @@
       <c r="AF48" t="n" s="8">
         <v>3629.0</v>
       </c>
+      <c r="AG48" t="n" s="8">
+        <v>3675.0</v>
+      </c>
+      <c r="AH48" t="n" s="8">
+        <v>3661.0</v>
+      </c>
+      <c r="AI48" t="n" s="8">
+        <v>3690.0</v>
+      </c>
+      <c r="AJ48"/>
     </row>
     <row r="49">
       <c r="A49" t="s" s="7">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B49" t="n" s="10">
         <v>4.2</v>
@@ -6065,10 +6533,20 @@
       <c r="AF49" t="n" s="10">
         <v>6.1</v>
       </c>
+      <c r="AG49" t="n" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="AH49" t="n" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="AI49" t="n" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="AJ49"/>
     </row>
     <row r="50">
       <c r="A50" t="s" s="7">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B50" t="n" s="8">
         <v>176.0</v>
@@ -6163,10 +6641,20 @@
       <c r="AF50" t="n" s="8">
         <v>212.0</v>
       </c>
+      <c r="AG50" t="n" s="8">
+        <v>126.0</v>
+      </c>
+      <c r="AH50" t="n" s="8">
+        <v>96.0</v>
+      </c>
+      <c r="AI50" t="n" s="8">
+        <v>94.0</v>
+      </c>
+      <c r="AJ50"/>
     </row>
     <row r="51">
       <c r="A51" t="s" s="7">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B51" t="n" s="8">
         <v>4036.0</v>
@@ -6261,10 +6749,20 @@
       <c r="AF51" t="n" s="8">
         <v>3276.0</v>
       </c>
+      <c r="AG51" t="n" s="8">
+        <v>3331.0</v>
+      </c>
+      <c r="AH51" t="n" s="8">
+        <v>3314.0</v>
+      </c>
+      <c r="AI51" t="n" s="8">
+        <v>3288.0</v>
+      </c>
+      <c r="AJ51"/>
     </row>
     <row r="52">
       <c r="A52" t="s" s="7">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B52" t="n" s="8">
         <v>4212.0</v>
@@ -6359,10 +6857,20 @@
       <c r="AF52" t="n" s="8">
         <v>3488.0</v>
       </c>
+      <c r="AG52" t="n" s="8">
+        <v>3457.0</v>
+      </c>
+      <c r="AH52" t="n" s="8">
+        <v>3410.0</v>
+      </c>
+      <c r="AI52" t="n" s="8">
+        <v>3382.0</v>
+      </c>
+      <c r="AJ52"/>
     </row>
     <row r="53">
       <c r="A53" t="s" s="7">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B53" t="n" s="10">
         <v>8.0</v>
@@ -6457,10 +6965,20 @@
       <c r="AF53" t="n" s="10">
         <v>7.5</v>
       </c>
+      <c r="AG53" t="n" s="10">
+        <v>5.3</v>
+      </c>
+      <c r="AH53" t="n" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="AI53" t="n" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="AJ53"/>
     </row>
     <row r="54">
       <c r="A54" t="s" s="7">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B54" t="n" s="8">
         <v>338.0</v>
@@ -6555,10 +7073,20 @@
       <c r="AF54" t="n" s="8">
         <v>258.0</v>
       </c>
+      <c r="AG54" t="n" s="8">
+        <v>185.0</v>
+      </c>
+      <c r="AH54" t="n" s="8">
+        <v>141.0</v>
+      </c>
+      <c r="AI54" t="n" s="8">
+        <v>154.0</v>
+      </c>
+      <c r="AJ54"/>
     </row>
     <row r="55">
       <c r="A55" t="s" s="7">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B55" t="n" s="8">
         <v>3905.0</v>
@@ -6653,10 +7181,20 @@
       <c r="AF55" t="n" s="8">
         <v>3172.0</v>
       </c>
+      <c r="AG55" t="n" s="8">
+        <v>3274.0</v>
+      </c>
+      <c r="AH55" t="n" s="8">
+        <v>3323.0</v>
+      </c>
+      <c r="AI55" t="n" s="8">
+        <v>3440.0</v>
+      </c>
+      <c r="AJ55"/>
     </row>
     <row r="56">
       <c r="A56" t="s" s="7">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B56" t="n" s="8">
         <v>4243.0</v>
@@ -6751,10 +7289,20 @@
       <c r="AF56" t="n" s="8">
         <v>3430.0</v>
       </c>
+      <c r="AG56" t="n" s="8">
+        <v>3459.0</v>
+      </c>
+      <c r="AH56" t="n" s="8">
+        <v>3464.0</v>
+      </c>
+      <c r="AI56" t="n" s="8">
+        <v>3594.0</v>
+      </c>
+      <c r="AJ56"/>
     </row>
     <row r="57">
       <c r="A57" t="s" s="7">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B57" t="n" s="10">
         <v>5.9</v>
@@ -6849,10 +7397,20 @@
       <c r="AF57" t="n" s="10">
         <v>7.0</v>
       </c>
+      <c r="AG57" t="n" s="10">
+        <v>5.1</v>
+      </c>
+      <c r="AH57" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AI57" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="AJ57"/>
     </row>
     <row r="58">
       <c r="A58" t="s" s="7">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B58" t="n" s="8">
         <v>364.0</v>
@@ -6947,10 +7505,20 @@
       <c r="AF58" t="n" s="8">
         <v>382.0</v>
       </c>
+      <c r="AG58" t="n" s="8">
+        <v>275.0</v>
+      </c>
+      <c r="AH58" t="n" s="8">
+        <v>205.0</v>
+      </c>
+      <c r="AI58" t="n" s="8">
+        <v>214.0</v>
+      </c>
+      <c r="AJ58"/>
     </row>
     <row r="59">
       <c r="A59" t="s" s="7">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B59" t="n" s="8">
         <v>5771.0</v>
@@ -7045,10 +7613,20 @@
       <c r="AF59" t="n" s="8">
         <v>5049.0</v>
       </c>
+      <c r="AG59" t="n" s="8">
+        <v>5156.0</v>
+      </c>
+      <c r="AH59" t="n" s="8">
+        <v>5182.0</v>
+      </c>
+      <c r="AI59" t="n" s="8">
+        <v>5188.0</v>
+      </c>
+      <c r="AJ59"/>
     </row>
     <row r="60">
       <c r="A60" t="s" s="7">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B60" t="n" s="8">
         <v>6135.0</v>
@@ -7143,10 +7721,20 @@
       <c r="AF60" t="n" s="8">
         <v>5431.0</v>
       </c>
+      <c r="AG60" t="n" s="8">
+        <v>5431.0</v>
+      </c>
+      <c r="AH60" t="n" s="8">
+        <v>5387.0</v>
+      </c>
+      <c r="AI60" t="n" s="8">
+        <v>5402.0</v>
+      </c>
+      <c r="AJ60"/>
     </row>
     <row r="61">
       <c r="A61" t="s" s="7">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B61" t="n" s="10">
         <v>10.3</v>
@@ -7241,10 +7829,20 @@
       <c r="AF61" t="n" s="10">
         <v>8.7</v>
       </c>
+      <c r="AG61" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="AH61" t="n" s="10">
+        <v>4.6</v>
+      </c>
+      <c r="AI61" t="n" s="10">
+        <v>4.7</v>
+      </c>
+      <c r="AJ61"/>
     </row>
     <row r="62">
       <c r="A62" t="s" s="7">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B62" t="n" s="8">
         <v>870.0</v>
@@ -7339,10 +7937,20 @@
       <c r="AF62" t="n" s="8">
         <v>594.0</v>
       </c>
+      <c r="AG62" t="n" s="8">
+        <v>415.0</v>
+      </c>
+      <c r="AH62" t="n" s="8">
+        <v>320.0</v>
+      </c>
+      <c r="AI62" t="n" s="8">
+        <v>325.0</v>
+      </c>
+      <c r="AJ62"/>
     </row>
     <row r="63">
       <c r="A63" t="s" s="7">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B63" t="n" s="8">
         <v>7558.0</v>
@@ -7437,10 +8045,20 @@
       <c r="AF63" t="n" s="8">
         <v>6264.0</v>
       </c>
+      <c r="AG63" t="n" s="8">
+        <v>6451.0</v>
+      </c>
+      <c r="AH63" t="n" s="8">
+        <v>6611.0</v>
+      </c>
+      <c r="AI63" t="n" s="8">
+        <v>6570.0</v>
+      </c>
+      <c r="AJ63"/>
     </row>
     <row r="64">
       <c r="A64" t="s" s="7">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B64" t="n" s="8">
         <v>8428.0</v>
@@ -7535,10 +8153,20 @@
       <c r="AF64" t="n" s="8">
         <v>6858.0</v>
       </c>
+      <c r="AG64" t="n" s="8">
+        <v>6866.0</v>
+      </c>
+      <c r="AH64" t="n" s="8">
+        <v>6931.0</v>
+      </c>
+      <c r="AI64" t="n" s="8">
+        <v>6895.0</v>
+      </c>
+      <c r="AJ64"/>
     </row>
     <row r="65">
       <c r="A65" t="s" s="7">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B65" t="n" s="10">
         <v>8.5</v>
@@ -7633,10 +8261,20 @@
       <c r="AF65" t="n" s="10">
         <v>7.6</v>
       </c>
+      <c r="AG65" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="AH65" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AI65" t="n" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="AJ65"/>
     </row>
     <row r="66">
       <c r="A66" t="s" s="7">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B66" t="n" s="8">
         <v>844.0</v>
@@ -7731,10 +8369,20 @@
       <c r="AF66" t="n" s="8">
         <v>809.0</v>
       </c>
+      <c r="AG66" t="n" s="8">
+        <v>539.0</v>
+      </c>
+      <c r="AH66" t="n" s="8">
+        <v>414.0</v>
+      </c>
+      <c r="AI66" t="n" s="8">
+        <v>451.0</v>
+      </c>
+      <c r="AJ66"/>
     </row>
     <row r="67">
       <c r="A67" t="s" s="7">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B67" t="n" s="8">
         <v>9101.0</v>
@@ -7829,10 +8477,20 @@
       <c r="AF67" t="n" s="8">
         <v>9825.0</v>
       </c>
+      <c r="AG67" t="n" s="8">
+        <v>10160.0</v>
+      </c>
+      <c r="AH67" t="n" s="8">
+        <v>10439.0</v>
+      </c>
+      <c r="AI67" t="n" s="8">
+        <v>10465.0</v>
+      </c>
+      <c r="AJ67"/>
     </row>
     <row r="68">
       <c r="A68" t="s" s="7">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B68" t="n" s="8">
         <v>9945.0</v>
@@ -7927,10 +8585,20 @@
       <c r="AF68" t="n" s="8">
         <v>10634.0</v>
       </c>
+      <c r="AG68" t="n" s="8">
+        <v>10699.0</v>
+      </c>
+      <c r="AH68" t="n" s="8">
+        <v>10853.0</v>
+      </c>
+      <c r="AI68" t="n" s="8">
+        <v>10916.0</v>
+      </c>
+      <c r="AJ68"/>
     </row>
     <row r="69">
       <c r="A69" t="s" s="7">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B69" t="n" s="10">
         <v>4.9</v>
@@ -8025,10 +8693,20 @@
       <c r="AF69" t="n" s="10">
         <v>8.2</v>
       </c>
+      <c r="AG69" t="n" s="10">
+        <v>5.3</v>
+      </c>
+      <c r="AH69" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AI69" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AJ69"/>
     </row>
     <row r="70">
       <c r="A70" t="s" s="7">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B70" t="n" s="8">
         <v>9501.0</v>
@@ -8123,10 +8801,20 @@
       <c r="AF70" t="n" s="8">
         <v>18370.0</v>
       </c>
+      <c r="AG70" t="n" s="8">
+        <v>12147.0</v>
+      </c>
+      <c r="AH70" t="n" s="8">
+        <v>8031.0</v>
+      </c>
+      <c r="AI70" t="n" s="8">
+        <v>7936.0</v>
+      </c>
+      <c r="AJ70"/>
     </row>
     <row r="71">
       <c r="A71" t="s" s="7">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B71" t="n" s="8">
         <v>185883.0</v>
@@ -8221,10 +8909,20 @@
       <c r="AF71" t="n" s="8">
         <v>206505.0</v>
       </c>
+      <c r="AG71" t="n" s="8">
+        <v>216209.0</v>
+      </c>
+      <c r="AH71" t="n" s="8">
+        <v>224477.0</v>
+      </c>
+      <c r="AI71" t="n" s="8">
+        <v>225501.0</v>
+      </c>
+      <c r="AJ71"/>
     </row>
     <row r="72">
       <c r="A72" t="s" s="7">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B72" t="n" s="8">
         <v>195384.0</v>
@@ -8319,10 +9017,20 @@
       <c r="AF72" t="n" s="8">
         <v>224875.0</v>
       </c>
+      <c r="AG72" t="n" s="8">
+        <v>228356.0</v>
+      </c>
+      <c r="AH72" t="n" s="8">
+        <v>232508.0</v>
+      </c>
+      <c r="AI72" t="n" s="8">
+        <v>233437.0</v>
+      </c>
+      <c r="AJ72"/>
     </row>
     <row r="73">
       <c r="A73" t="s" s="7">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B73" t="n" s="10">
         <v>13.5</v>
@@ -8417,10 +9125,20 @@
       <c r="AF73" t="n" s="10">
         <v>12.5</v>
       </c>
+      <c r="AG73" t="n" s="10">
+        <v>9.9</v>
+      </c>
+      <c r="AH73" t="n" s="10">
+        <v>7.8</v>
+      </c>
+      <c r="AI73" t="n" s="10">
+        <v>8.8</v>
+      </c>
+      <c r="AJ73"/>
     </row>
     <row r="74">
       <c r="A74" t="s" s="7">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B74" t="n" s="8">
         <v>426.0</v>
@@ -8515,10 +9233,20 @@
       <c r="AF74" t="n" s="8">
         <v>225.0</v>
       </c>
+      <c r="AG74" t="n" s="8">
+        <v>173.0</v>
+      </c>
+      <c r="AH74" t="n" s="8">
+        <v>128.0</v>
+      </c>
+      <c r="AI74" t="n" s="8">
+        <v>148.0</v>
+      </c>
+      <c r="AJ74"/>
     </row>
     <row r="75">
       <c r="A75" t="s" s="7">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B75" t="n" s="8">
         <v>2735.0</v>
@@ -8613,10 +9341,20 @@
       <c r="AF75" t="n" s="8">
         <v>1577.0</v>
       </c>
+      <c r="AG75" t="n" s="8">
+        <v>1566.0</v>
+      </c>
+      <c r="AH75" t="n" s="8">
+        <v>1522.0</v>
+      </c>
+      <c r="AI75" t="n" s="8">
+        <v>1535.0</v>
+      </c>
+      <c r="AJ75"/>
     </row>
     <row r="76">
       <c r="A76" t="s" s="7">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B76" t="n" s="8">
         <v>3161.0</v>
@@ -8711,10 +9449,20 @@
       <c r="AF76" t="n" s="8">
         <v>1802.0</v>
       </c>
+      <c r="AG76" t="n" s="8">
+        <v>1739.0</v>
+      </c>
+      <c r="AH76" t="n" s="8">
+        <v>1650.0</v>
+      </c>
+      <c r="AI76" t="n" s="8">
+        <v>1683.0</v>
+      </c>
+      <c r="AJ76"/>
     </row>
     <row r="77">
       <c r="A77" t="s" s="7">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B77" t="n" s="10">
         <v>6.0</v>
@@ -8809,10 +9557,20 @@
       <c r="AF77" t="n" s="10">
         <v>7.1</v>
       </c>
+      <c r="AG77" t="n" s="10">
+        <v>4.7</v>
+      </c>
+      <c r="AH77" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AI77" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AJ77"/>
     </row>
     <row r="78">
       <c r="A78" t="s" s="7">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B78" t="n" s="8">
         <v>435.0</v>
@@ -8907,10 +9665,20 @@
       <c r="AF78" t="n" s="8">
         <v>534.0</v>
       </c>
+      <c r="AG78" t="n" s="8">
+        <v>359.0</v>
+      </c>
+      <c r="AH78" t="n" s="8">
+        <v>248.0</v>
+      </c>
+      <c r="AI78" t="n" s="8">
+        <v>278.0</v>
+      </c>
+      <c r="AJ78"/>
     </row>
     <row r="79">
       <c r="A79" t="s" s="7">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B79" t="n" s="8">
         <v>6767.0</v>
@@ -9005,10 +9773,20 @@
       <c r="AF79" t="n" s="8">
         <v>6996.0</v>
       </c>
+      <c r="AG79" t="n" s="8">
+        <v>7329.0</v>
+      </c>
+      <c r="AH79" t="n" s="8">
+        <v>7606.0</v>
+      </c>
+      <c r="AI79" t="n" s="8">
+        <v>7640.0</v>
+      </c>
+      <c r="AJ79"/>
     </row>
     <row r="80">
       <c r="A80" t="s" s="7">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B80" t="n" s="8">
         <v>7202.0</v>
@@ -9103,10 +9881,20 @@
       <c r="AF80" t="n" s="8">
         <v>7530.0</v>
       </c>
+      <c r="AG80" t="n" s="8">
+        <v>7688.0</v>
+      </c>
+      <c r="AH80" t="n" s="8">
+        <v>7854.0</v>
+      </c>
+      <c r="AI80" t="n" s="8">
+        <v>7918.0</v>
+      </c>
+      <c r="AJ80"/>
     </row>
     <row r="81">
       <c r="A81" t="s" s="7">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B81" t="n" s="10">
         <v>7.4</v>
@@ -9201,10 +9989,20 @@
       <c r="AF81" t="n" s="10">
         <v>8.2</v>
       </c>
+      <c r="AG81" t="n" s="10">
+        <v>5.6</v>
+      </c>
+      <c r="AH81" t="n" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="AI81" t="n" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="AJ81"/>
     </row>
     <row r="82">
       <c r="A82" t="s" s="7">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B82" t="n" s="8">
         <v>839.0</v>
@@ -9299,10 +10097,20 @@
       <c r="AF82" t="n" s="8">
         <v>970.0</v>
       </c>
+      <c r="AG82" t="n" s="8">
+        <v>669.0</v>
+      </c>
+      <c r="AH82" t="n" s="8">
+        <v>488.0</v>
+      </c>
+      <c r="AI82" t="n" s="8">
+        <v>479.0</v>
+      </c>
+      <c r="AJ82"/>
     </row>
     <row r="83">
       <c r="A83" t="s" s="7">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B83" t="n" s="8">
         <v>10561.0</v>
@@ -9397,10 +10205,20 @@
       <c r="AF83" t="n" s="8">
         <v>10910.0</v>
       </c>
+      <c r="AG83" t="n" s="8">
+        <v>11259.0</v>
+      </c>
+      <c r="AH83" t="n" s="8">
+        <v>11484.0</v>
+      </c>
+      <c r="AI83" t="n" s="8">
+        <v>11721.0</v>
+      </c>
+      <c r="AJ83"/>
     </row>
     <row r="84">
       <c r="A84" t="s" s="7">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B84" t="n" s="8">
         <v>11400.0</v>
@@ -9495,10 +10313,20 @@
       <c r="AF84" t="n" s="8">
         <v>11880.0</v>
       </c>
+      <c r="AG84" t="n" s="8">
+        <v>11928.0</v>
+      </c>
+      <c r="AH84" t="n" s="8">
+        <v>11972.0</v>
+      </c>
+      <c r="AI84" t="n" s="8">
+        <v>12200.0</v>
+      </c>
+      <c r="AJ84"/>
     </row>
     <row r="85">
       <c r="A85" t="s" s="7">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B85" t="n" s="10">
         <v>8.1</v>
@@ -9593,10 +10421,20 @@
       <c r="AF85" t="n" s="10">
         <v>8.6</v>
       </c>
+      <c r="AG85" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="AH85" t="n" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="AI85" t="n" s="10">
+        <v>5.2</v>
+      </c>
+      <c r="AJ85"/>
     </row>
     <row r="86">
       <c r="A86" t="s" s="7">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B86" t="n" s="8">
         <v>719.0</v>
@@ -9691,10 +10529,20 @@
       <c r="AF86" t="n" s="8">
         <v>627.0</v>
       </c>
+      <c r="AG86" t="n" s="8">
+        <v>443.0</v>
+      </c>
+      <c r="AH86" t="n" s="8">
+        <v>352.0</v>
+      </c>
+      <c r="AI86" t="n" s="8">
+        <v>378.0</v>
+      </c>
+      <c r="AJ86"/>
     </row>
     <row r="87">
       <c r="A87" t="s" s="7">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B87" t="n" s="8">
         <v>8113.0</v>
@@ -9789,10 +10637,20 @@
       <c r="AF87" t="n" s="8">
         <v>6651.0</v>
       </c>
+      <c r="AG87" t="n" s="8">
+        <v>6937.0</v>
+      </c>
+      <c r="AH87" t="n" s="8">
+        <v>7020.0</v>
+      </c>
+      <c r="AI87" t="n" s="8">
+        <v>6917.0</v>
+      </c>
+      <c r="AJ87"/>
     </row>
     <row r="88">
       <c r="A88" t="s" s="7">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B88" t="n" s="8">
         <v>8832.0</v>
@@ -9887,10 +10745,20 @@
       <c r="AF88" t="n" s="8">
         <v>7278.0</v>
       </c>
+      <c r="AG88" t="n" s="8">
+        <v>7380.0</v>
+      </c>
+      <c r="AH88" t="n" s="8">
+        <v>7372.0</v>
+      </c>
+      <c r="AI88" t="n" s="8">
+        <v>7295.0</v>
+      </c>
+      <c r="AJ88"/>
     </row>
     <row r="89">
       <c r="A89" t="s" s="7">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B89" t="n" s="10">
         <v>6.6</v>
@@ -9985,10 +10853,20 @@
       <c r="AF89" t="n" s="10">
         <v>6.9</v>
       </c>
+      <c r="AG89" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="AH89" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AI89" t="n" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="AJ89"/>
     </row>
     <row r="90">
       <c r="A90" t="s" s="7">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B90" t="n" s="8">
         <v>463.0</v>
@@ -10083,10 +10961,20 @@
       <c r="AF90" t="n" s="8">
         <v>560.0</v>
       </c>
+      <c r="AG90" t="n" s="8">
+        <v>343.0</v>
+      </c>
+      <c r="AH90" t="n" s="8">
+        <v>286.0</v>
+      </c>
+      <c r="AI90" t="n" s="8">
+        <v>301.0</v>
+      </c>
+      <c r="AJ90"/>
     </row>
     <row r="91">
       <c r="A91" t="s" s="7">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B91" t="n" s="8">
         <v>6605.0</v>
@@ -10181,10 +11069,20 @@
       <c r="AF91" t="n" s="8">
         <v>7517.0</v>
       </c>
+      <c r="AG91" t="n" s="8">
+        <v>7815.0</v>
+      </c>
+      <c r="AH91" t="n" s="8">
+        <v>7911.0</v>
+      </c>
+      <c r="AI91" t="n" s="8">
+        <v>7812.0</v>
+      </c>
+      <c r="AJ91"/>
     </row>
     <row r="92">
       <c r="A92" t="s" s="7">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B92" t="n" s="8">
         <v>7068.0</v>
@@ -10279,10 +11177,20 @@
       <c r="AF92" t="n" s="8">
         <v>8077.0</v>
       </c>
+      <c r="AG92" t="n" s="8">
+        <v>8158.0</v>
+      </c>
+      <c r="AH92" t="n" s="8">
+        <v>8197.0</v>
+      </c>
+      <c r="AI92" t="n" s="8">
+        <v>8113.0</v>
+      </c>
+      <c r="AJ92"/>
     </row>
     <row r="93">
       <c r="A93" t="s" s="7">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B93" t="n" s="10">
         <v>4.7</v>
@@ -10377,10 +11285,20 @@
       <c r="AF93" t="n" s="10">
         <v>10.0</v>
       </c>
+      <c r="AG93" t="n" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="AH93" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="AI93" t="n" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="AJ93"/>
     </row>
     <row r="94">
       <c r="A94" t="s" s="7">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B94" t="n" s="8">
         <v>1357.0</v>
@@ -10475,10 +11393,20 @@
       <c r="AF94" t="n" s="8">
         <v>2729.0</v>
       </c>
+      <c r="AG94" t="n" s="8">
+        <v>1921.0</v>
+      </c>
+      <c r="AH94" t="n" s="8">
+        <v>1151.0</v>
+      </c>
+      <c r="AI94" t="n" s="8">
+        <v>1133.0</v>
+      </c>
+      <c r="AJ94"/>
     </row>
     <row r="95">
       <c r="A95" t="s" s="7">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B95" t="n" s="8">
         <v>27551.0</v>
@@ -10573,10 +11501,20 @@
       <c r="AF95" t="n" s="8">
         <v>24626.0</v>
       </c>
+      <c r="AG95" t="n" s="8">
+        <v>25609.0</v>
+      </c>
+      <c r="AH95" t="n" s="8">
+        <v>26279.0</v>
+      </c>
+      <c r="AI95" t="n" s="8">
+        <v>26391.0</v>
+      </c>
+      <c r="AJ95"/>
     </row>
     <row r="96">
       <c r="A96" t="s" s="7">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B96" t="n" s="8">
         <v>28908.0</v>
@@ -10671,10 +11609,20 @@
       <c r="AF96" t="n" s="8">
         <v>27355.0</v>
       </c>
+      <c r="AG96" t="n" s="8">
+        <v>27530.0</v>
+      </c>
+      <c r="AH96" t="n" s="8">
+        <v>27430.0</v>
+      </c>
+      <c r="AI96" t="n" s="8">
+        <v>27524.0</v>
+      </c>
+      <c r="AJ96"/>
     </row>
     <row r="97">
       <c r="A97" t="s" s="7">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B97" t="n" s="10">
         <v>7.9</v>
@@ -10769,10 +11717,20 @@
       <c r="AF97" t="n" s="10">
         <v>10.4</v>
       </c>
+      <c r="AG97" t="n" s="10">
+        <v>7.1</v>
+      </c>
+      <c r="AH97" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AI97" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="AJ97"/>
     </row>
     <row r="98">
       <c r="A98" t="s" s="7">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B98" t="n" s="8">
         <v>1003.0</v>
@@ -10867,10 +11825,20 @@
       <c r="AF98" t="n" s="8">
         <v>1408.0</v>
       </c>
+      <c r="AG98" t="n" s="8">
+        <v>979.0</v>
+      </c>
+      <c r="AH98" t="n" s="8">
+        <v>610.0</v>
+      </c>
+      <c r="AI98" t="n" s="8">
+        <v>580.0</v>
+      </c>
+      <c r="AJ98"/>
     </row>
     <row r="99">
       <c r="A99" t="s" s="7">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B99" t="n" s="8">
         <v>11705.0</v>
@@ -10965,10 +11933,20 @@
       <c r="AF99" t="n" s="8">
         <v>12164.0</v>
       </c>
+      <c r="AG99" t="n" s="8">
+        <v>12723.0</v>
+      </c>
+      <c r="AH99" t="n" s="8">
+        <v>13240.0</v>
+      </c>
+      <c r="AI99" t="n" s="8">
+        <v>13309.0</v>
+      </c>
+      <c r="AJ99"/>
     </row>
     <row r="100">
       <c r="A100" t="s" s="7">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B100" t="n" s="8">
         <v>12708.0</v>
@@ -11063,10 +12041,20 @@
       <c r="AF100" t="n" s="8">
         <v>13572.0</v>
       </c>
+      <c r="AG100" t="n" s="8">
+        <v>13702.0</v>
+      </c>
+      <c r="AH100" t="n" s="8">
+        <v>13850.0</v>
+      </c>
+      <c r="AI100" t="n" s="8">
+        <v>13889.0</v>
+      </c>
+      <c r="AJ100"/>
     </row>
     <row r="101">
       <c r="A101" t="s" s="7">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B101" t="n" s="10">
         <v>4.9</v>
@@ -11161,10 +12149,20 @@
       <c r="AF101" t="n" s="10">
         <v>5.7</v>
       </c>
+      <c r="AG101" t="n" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="AH101" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AI101" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AJ101"/>
     </row>
     <row r="102">
       <c r="A102" t="s" s="7">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B102" t="n" s="8">
         <v>295.0</v>
@@ -11259,10 +12257,20 @@
       <c r="AF102" t="n" s="8">
         <v>380.0</v>
       </c>
+      <c r="AG102" t="n" s="8">
+        <v>263.0</v>
+      </c>
+      <c r="AH102" t="n" s="8">
+        <v>219.0</v>
+      </c>
+      <c r="AI102" t="n" s="8">
+        <v>234.0</v>
+      </c>
+      <c r="AJ102"/>
     </row>
     <row r="103">
       <c r="A103" t="s" s="7">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B103" t="n" s="8">
         <v>5723.0</v>
@@ -11357,10 +12365,20 @@
       <c r="AF103" t="n" s="8">
         <v>6308.0</v>
       </c>
+      <c r="AG103" t="n" s="8">
+        <v>6478.0</v>
+      </c>
+      <c r="AH103" t="n" s="8">
+        <v>6684.0</v>
+      </c>
+      <c r="AI103" t="n" s="8">
+        <v>6912.0</v>
+      </c>
+      <c r="AJ103"/>
     </row>
     <row r="104">
       <c r="A104" t="s" s="7">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B104" t="n" s="8">
         <v>6018.0</v>
@@ -11455,10 +12473,20 @@
       <c r="AF104" t="n" s="8">
         <v>6688.0</v>
       </c>
+      <c r="AG104" t="n" s="8">
+        <v>6741.0</v>
+      </c>
+      <c r="AH104" t="n" s="8">
+        <v>6903.0</v>
+      </c>
+      <c r="AI104" t="n" s="8">
+        <v>7146.0</v>
+      </c>
+      <c r="AJ104"/>
     </row>
     <row r="105">
       <c r="A105" t="s" s="7">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B105" t="n" s="10">
         <v>5.6</v>
@@ -11506,10 +12534,10 @@
         <v>4.7</v>
       </c>
       <c r="Q105" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="R105" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="S105" t="n" s="10">
         <v>3.5</v>
@@ -11553,10 +12581,20 @@
       <c r="AF105" t="n" s="10">
         <v>9.6</v>
       </c>
+      <c r="AG105" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="AH105" t="n" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="AI105" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AJ105"/>
     </row>
     <row r="106">
       <c r="A106" t="s" s="7">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B106" t="n" s="8">
         <v>12827.0</v>
@@ -11604,10 +12642,10 @@
         <v>10466.0</v>
       </c>
       <c r="Q106" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="R106" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="S106" t="n" s="8">
         <v>7663.0</v>
@@ -11651,10 +12689,20 @@
       <c r="AF106" t="n" s="8">
         <v>19943.0</v>
       </c>
+      <c r="AG106" t="n" s="8">
+        <v>12495.0</v>
+      </c>
+      <c r="AH106" t="n" s="8">
+        <v>7437.0</v>
+      </c>
+      <c r="AI106" t="n" s="8">
+        <v>7253.0</v>
+      </c>
+      <c r="AJ106"/>
     </row>
     <row r="107">
       <c r="A107" t="s" s="7">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B107" t="n" s="8">
         <v>214685.0</v>
@@ -11702,10 +12750,10 @@
         <v>213509.0</v>
       </c>
       <c r="Q107" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="R107" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="S107" t="n" s="8">
         <v>213404.0</v>
@@ -11749,10 +12797,20 @@
       <c r="AF107" t="n" s="8">
         <v>188494.0</v>
       </c>
+      <c r="AG107" t="n" s="8">
+        <v>194974.0</v>
+      </c>
+      <c r="AH107" t="n" s="8">
+        <v>201513.0</v>
+      </c>
+      <c r="AI107" t="n" s="8">
+        <v>201929.0</v>
+      </c>
+      <c r="AJ107"/>
     </row>
     <row r="108">
       <c r="A108" t="s" s="7">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B108" t="n" s="8">
         <v>227512.0</v>
@@ -11800,10 +12858,10 @@
         <v>223975.0</v>
       </c>
       <c r="Q108" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="R108" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="S108" t="n" s="8">
         <v>221067.0</v>
@@ -11847,10 +12905,20 @@
       <c r="AF108" t="n" s="8">
         <v>208437.0</v>
       </c>
+      <c r="AG108" t="n" s="8">
+        <v>207469.0</v>
+      </c>
+      <c r="AH108" t="n" s="8">
+        <v>208950.0</v>
+      </c>
+      <c r="AI108" t="n" s="8">
+        <v>209182.0</v>
+      </c>
+      <c r="AJ108"/>
     </row>
     <row r="109">
       <c r="A109" t="s" s="7">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B109" t="n" s="10">
         <v>6.8</v>
@@ -11945,10 +13013,20 @@
       <c r="AF109" t="n" s="10">
         <v>8.0</v>
       </c>
+      <c r="AG109" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="AH109" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AI109" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AJ109"/>
     </row>
     <row r="110">
       <c r="A110" t="s" s="7">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B110" t="n" s="8">
         <v>809.0</v>
@@ -12043,10 +13121,20 @@
       <c r="AF110" t="n" s="8">
         <v>1010.0</v>
       </c>
+      <c r="AG110" t="n" s="8">
+        <v>617.0</v>
+      </c>
+      <c r="AH110" t="n" s="8">
+        <v>428.0</v>
+      </c>
+      <c r="AI110" t="n" s="8">
+        <v>460.0</v>
+      </c>
+      <c r="AJ110"/>
     </row>
     <row r="111">
       <c r="A111" t="s" s="7">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B111" t="n" s="8">
         <v>11163.0</v>
@@ -12141,10 +13229,20 @@
       <c r="AF111" t="n" s="8">
         <v>11656.0</v>
       </c>
+      <c r="AG111" t="n" s="8">
+        <v>11797.0</v>
+      </c>
+      <c r="AH111" t="n" s="8">
+        <v>11856.0</v>
+      </c>
+      <c r="AI111" t="n" s="8">
+        <v>11745.0</v>
+      </c>
+      <c r="AJ111"/>
     </row>
     <row r="112">
       <c r="A112" t="s" s="7">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B112" t="n" s="8">
         <v>11972.0</v>
@@ -12239,10 +13337,20 @@
       <c r="AF112" t="n" s="8">
         <v>12666.0</v>
       </c>
+      <c r="AG112" t="n" s="8">
+        <v>12414.0</v>
+      </c>
+      <c r="AH112" t="n" s="8">
+        <v>12284.0</v>
+      </c>
+      <c r="AI112" t="n" s="8">
+        <v>12205.0</v>
+      </c>
+      <c r="AJ112"/>
     </row>
     <row r="113">
       <c r="A113" t="s" s="7">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B113" t="n" s="10">
         <v>4.2</v>
@@ -12337,10 +13445,20 @@
       <c r="AF113" t="n" s="10">
         <v>7.4</v>
       </c>
+      <c r="AG113" t="n" s="10">
+        <v>4.6</v>
+      </c>
+      <c r="AH113" t="n" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="AI113" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AJ113"/>
     </row>
     <row r="114">
       <c r="A114" t="s" s="7">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B114" t="n" s="8">
         <v>3440.0</v>
@@ -12435,10 +13553,20 @@
       <c r="AF114" t="n" s="8">
         <v>8433.0</v>
       </c>
+      <c r="AG114" t="n" s="8">
+        <v>5324.0</v>
+      </c>
+      <c r="AH114" t="n" s="8">
+        <v>3643.0</v>
+      </c>
+      <c r="AI114" t="n" s="8">
+        <v>3708.0</v>
+      </c>
+      <c r="AJ114"/>
     </row>
     <row r="115">
       <c r="A115" t="s" s="7">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B115" t="n" s="8">
         <v>79173.0</v>
@@ -12533,10 +13661,20 @@
       <c r="AF115" t="n" s="8">
         <v>105162.0</v>
       </c>
+      <c r="AG115" t="n" s="8">
+        <v>109328.0</v>
+      </c>
+      <c r="AH115" t="n" s="8">
+        <v>112040.0</v>
+      </c>
+      <c r="AI115" t="n" s="8">
+        <v>112473.0</v>
+      </c>
+      <c r="AJ115"/>
     </row>
     <row r="116">
       <c r="A116" t="s" s="7">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B116" t="n" s="8">
         <v>82613.0</v>
@@ -12631,10 +13769,20 @@
       <c r="AF116" t="n" s="8">
         <v>113595.0</v>
       </c>
+      <c r="AG116" t="n" s="8">
+        <v>114652.0</v>
+      </c>
+      <c r="AH116" t="n" s="8">
+        <v>115683.0</v>
+      </c>
+      <c r="AI116" t="n" s="8">
+        <v>116181.0</v>
+      </c>
+      <c r="AJ116"/>
     </row>
     <row r="117">
       <c r="A117" t="s" s="7">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B117" t="n" s="10">
         <v>4.1</v>
@@ -12729,10 +13877,20 @@
       <c r="AF117" t="n" s="10">
         <v>6.9</v>
       </c>
+      <c r="AG117" t="n" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="AH117" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AI117" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AJ117"/>
     </row>
     <row r="118">
       <c r="A118" t="s" s="7">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B118" t="n" s="8">
         <v>1510.0</v>
@@ -12827,10 +13985,20 @@
       <c r="AF118" t="n" s="8">
         <v>2809.0</v>
       </c>
+      <c r="AG118" t="n" s="8">
+        <v>1925.0</v>
+      </c>
+      <c r="AH118" t="n" s="8">
+        <v>1364.0</v>
+      </c>
+      <c r="AI118" t="n" s="8">
+        <v>1308.0</v>
+      </c>
+      <c r="AJ118"/>
     </row>
     <row r="119">
       <c r="A119" t="s" s="7">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B119" t="n" s="8">
         <v>35133.0</v>
@@ -12925,10 +14093,20 @@
       <c r="AF119" t="n" s="8">
         <v>38149.0</v>
       </c>
+      <c r="AG119" t="n" s="8">
+        <v>38527.0</v>
+      </c>
+      <c r="AH119" t="n" s="8">
+        <v>39042.0</v>
+      </c>
+      <c r="AI119" t="n" s="8">
+        <v>39973.0</v>
+      </c>
+      <c r="AJ119"/>
     </row>
     <row r="120">
       <c r="A120" t="s" s="7">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B120" t="n" s="8">
         <v>36643.0</v>
@@ -13023,10 +14201,20 @@
       <c r="AF120" t="n" s="8">
         <v>40958.0</v>
       </c>
+      <c r="AG120" t="n" s="8">
+        <v>40452.0</v>
+      </c>
+      <c r="AH120" t="n" s="8">
+        <v>40406.0</v>
+      </c>
+      <c r="AI120" t="n" s="8">
+        <v>41281.0</v>
+      </c>
+      <c r="AJ120"/>
     </row>
     <row r="121">
       <c r="A121" t="s" s="7">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B121" t="n" s="10">
         <v>4.6</v>
@@ -13121,10 +14309,20 @@
       <c r="AF121" t="n" s="10">
         <v>5.1</v>
       </c>
+      <c r="AG121" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AH121" t="n" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AI121" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AJ121"/>
     </row>
     <row r="122">
       <c r="A122" t="s" s="7">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B122" t="n" s="8">
         <v>262.0</v>
@@ -13219,10 +14417,20 @@
       <c r="AF122" t="n" s="8">
         <v>346.0</v>
       </c>
+      <c r="AG122" t="n" s="8">
+        <v>228.0</v>
+      </c>
+      <c r="AH122" t="n" s="8">
+        <v>177.0</v>
+      </c>
+      <c r="AI122" t="n" s="8">
+        <v>199.0</v>
+      </c>
+      <c r="AJ122"/>
     </row>
     <row r="123">
       <c r="A123" t="s" s="7">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B123" t="n" s="8">
         <v>5485.0</v>
@@ -13317,10 +14525,20 @@
       <c r="AF123" t="n" s="8">
         <v>6450.0</v>
       </c>
+      <c r="AG123" t="n" s="8">
+        <v>6451.0</v>
+      </c>
+      <c r="AH123" t="n" s="8">
+        <v>6523.0</v>
+      </c>
+      <c r="AI123" t="n" s="8">
+        <v>6368.0</v>
+      </c>
+      <c r="AJ123"/>
     </row>
     <row r="124">
       <c r="A124" t="s" s="7">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B124" t="n" s="8">
         <v>5747.0</v>
@@ -13415,10 +14633,20 @@
       <c r="AF124" t="n" s="8">
         <v>6796.0</v>
       </c>
+      <c r="AG124" t="n" s="8">
+        <v>6679.0</v>
+      </c>
+      <c r="AH124" t="n" s="8">
+        <v>6700.0</v>
+      </c>
+      <c r="AI124" t="n" s="8">
+        <v>6567.0</v>
+      </c>
+      <c r="AJ124"/>
     </row>
     <row r="125">
       <c r="A125" t="s" s="7">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B125" t="n" s="10">
         <v>5.0</v>
@@ -13513,10 +14741,20 @@
       <c r="AF125" t="n" s="10">
         <v>6.6</v>
       </c>
+      <c r="AG125" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AH125" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AI125" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AJ125"/>
     </row>
     <row r="126">
       <c r="A126" t="s" s="7">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B126" t="n" s="8">
         <v>887.0</v>
@@ -13611,10 +14849,20 @@
       <c r="AF126" t="n" s="8">
         <v>1379.0</v>
       </c>
+      <c r="AG126" t="n" s="8">
+        <v>937.0</v>
+      </c>
+      <c r="AH126" t="n" s="8">
+        <v>740.0</v>
+      </c>
+      <c r="AI126" t="n" s="8">
+        <v>801.0</v>
+      </c>
+      <c r="AJ126"/>
     </row>
     <row r="127">
       <c r="A127" t="s" s="7">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B127" t="n" s="8">
         <v>16855.0</v>
@@ -13709,10 +14957,20 @@
       <c r="AF127" t="n" s="8">
         <v>19507.0</v>
       </c>
+      <c r="AG127" t="n" s="8">
+        <v>20121.0</v>
+      </c>
+      <c r="AH127" t="n" s="8">
+        <v>20419.0</v>
+      </c>
+      <c r="AI127" t="n" s="8">
+        <v>20425.0</v>
+      </c>
+      <c r="AJ127"/>
     </row>
     <row r="128">
       <c r="A128" t="s" s="7">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B128" t="n" s="8">
         <v>17742.0</v>
@@ -13807,10 +15065,20 @@
       <c r="AF128" t="n" s="8">
         <v>20886.0</v>
       </c>
+      <c r="AG128" t="n" s="8">
+        <v>21058.0</v>
+      </c>
+      <c r="AH128" t="n" s="8">
+        <v>21159.0</v>
+      </c>
+      <c r="AI128" t="n" s="8">
+        <v>21226.0</v>
+      </c>
+      <c r="AJ128"/>
     </row>
     <row r="129">
       <c r="A129" t="s" s="7">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B129" t="n" s="10">
         <v>7.1</v>
@@ -13905,10 +15173,20 @@
       <c r="AF129" t="n" s="10">
         <v>6.7</v>
       </c>
+      <c r="AG129" t="n" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="AH129" t="n" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="AI129" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AJ129"/>
     </row>
     <row r="130">
       <c r="A130" t="s" s="7">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B130" t="n" s="8">
         <v>2357.0</v>
@@ -14003,10 +15281,20 @@
       <c r="AF130" t="n" s="8">
         <v>4589.0</v>
       </c>
+      <c r="AG130" t="n" s="8">
+        <v>2704.0</v>
+      </c>
+      <c r="AH130" t="n" s="8">
+        <v>2031.0</v>
+      </c>
+      <c r="AI130" t="n" s="8">
+        <v>2135.0</v>
+      </c>
+      <c r="AJ130"/>
     </row>
     <row r="131">
       <c r="A131" t="s" s="7">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B131" t="n" s="8">
         <v>31046.0</v>
@@ -14101,10 +15389,20 @@
       <c r="AF131" t="n" s="8">
         <v>63814.0</v>
       </c>
+      <c r="AG131" t="n" s="8">
+        <v>66832.0</v>
+      </c>
+      <c r="AH131" t="n" s="8">
+        <v>69374.0</v>
+      </c>
+      <c r="AI131" t="n" s="8">
+        <v>69688.0</v>
+      </c>
+      <c r="AJ131"/>
     </row>
     <row r="132">
       <c r="A132" t="s" s="7">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B132" t="n" s="8">
         <v>33403.0</v>
@@ -14199,10 +15497,20 @@
       <c r="AF132" t="n" s="8">
         <v>68403.0</v>
       </c>
+      <c r="AG132" t="n" s="8">
+        <v>69536.0</v>
+      </c>
+      <c r="AH132" t="n" s="8">
+        <v>71405.0</v>
+      </c>
+      <c r="AI132" t="n" s="8">
+        <v>71823.0</v>
+      </c>
+      <c r="AJ132"/>
     </row>
     <row r="133">
       <c r="A133" t="s" s="7">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B133" t="n" s="10">
         <v>11.3</v>
@@ -14297,10 +15605,20 @@
       <c r="AF133" t="n" s="10">
         <v>9.0</v>
       </c>
+      <c r="AG133" t="n" s="10">
+        <v>6.9</v>
+      </c>
+      <c r="AH133" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="AI133" t="n" s="10">
+        <v>5.5</v>
+      </c>
+      <c r="AJ133"/>
     </row>
     <row r="134">
       <c r="A134" t="s" s="7">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B134" t="n" s="8">
         <v>521.0</v>
@@ -14395,10 +15713,20 @@
       <c r="AF134" t="n" s="8">
         <v>315.0</v>
       </c>
+      <c r="AG134" t="n" s="8">
+        <v>239.0</v>
+      </c>
+      <c r="AH134" t="n" s="8">
+        <v>173.0</v>
+      </c>
+      <c r="AI134" t="n" s="8">
+        <v>191.0</v>
+      </c>
+      <c r="AJ134"/>
     </row>
     <row r="135">
       <c r="A135" t="s" s="7">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B135" t="n" s="8">
         <v>4097.0</v>
@@ -14493,10 +15821,20 @@
       <c r="AF135" t="n" s="8">
         <v>3199.0</v>
       </c>
+      <c r="AG135" t="n" s="8">
+        <v>3214.0</v>
+      </c>
+      <c r="AH135" t="n" s="8">
+        <v>3290.0</v>
+      </c>
+      <c r="AI135" t="n" s="8">
+        <v>3292.0</v>
+      </c>
+      <c r="AJ135"/>
     </row>
     <row r="136">
       <c r="A136" t="s" s="7">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B136" t="n" s="8">
         <v>4618.0</v>
@@ -14591,10 +15929,20 @@
       <c r="AF136" t="n" s="8">
         <v>3514.0</v>
       </c>
+      <c r="AG136" t="n" s="8">
+        <v>3453.0</v>
+      </c>
+      <c r="AH136" t="n" s="8">
+        <v>3463.0</v>
+      </c>
+      <c r="AI136" t="n" s="8">
+        <v>3483.0</v>
+      </c>
+      <c r="AJ136"/>
     </row>
     <row r="137">
       <c r="A137" t="s" s="7">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B137" t="n" s="10">
         <v>8.5</v>
@@ -14689,10 +16037,20 @@
       <c r="AF137" t="n" s="10">
         <v>10.3</v>
       </c>
+      <c r="AG137" t="n" s="10">
+        <v>7.4</v>
+      </c>
+      <c r="AH137" t="n" s="10">
+        <v>5.3</v>
+      </c>
+      <c r="AI137" t="n" s="10">
+        <v>5.9</v>
+      </c>
+      <c r="AJ137"/>
     </row>
     <row r="138">
       <c r="A138" t="s" s="7">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B138" t="n" s="8">
         <v>1049.0</v>
@@ -14787,10 +16145,20 @@
       <c r="AF138" t="n" s="8">
         <v>1027.0</v>
       </c>
+      <c r="AG138" t="n" s="8">
+        <v>735.0</v>
+      </c>
+      <c r="AH138" t="n" s="8">
+        <v>516.0</v>
+      </c>
+      <c r="AI138" t="n" s="8">
+        <v>569.0</v>
+      </c>
+      <c r="AJ138"/>
     </row>
     <row r="139">
       <c r="A139" t="s" s="7">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B139" t="n" s="8">
         <v>11291.0</v>
@@ -14885,10 +16253,20 @@
       <c r="AF139" t="n" s="8">
         <v>8936.0</v>
       </c>
+      <c r="AG139" t="n" s="8">
+        <v>9171.0</v>
+      </c>
+      <c r="AH139" t="n" s="8">
+        <v>9288.0</v>
+      </c>
+      <c r="AI139" t="n" s="8">
+        <v>9015.0</v>
+      </c>
+      <c r="AJ139"/>
     </row>
     <row r="140">
       <c r="A140" t="s" s="7">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B140" t="n" s="8">
         <v>12340.0</v>
@@ -14983,10 +16361,20 @@
       <c r="AF140" t="n" s="8">
         <v>9963.0</v>
       </c>
+      <c r="AG140" t="n" s="8">
+        <v>9906.0</v>
+      </c>
+      <c r="AH140" t="n" s="8">
+        <v>9804.0</v>
+      </c>
+      <c r="AI140" t="n" s="8">
+        <v>9584.0</v>
+      </c>
+      <c r="AJ140"/>
     </row>
     <row r="141">
       <c r="A141" t="s" s="7">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B141" t="n" s="10">
         <v>8.2</v>
@@ -15081,10 +16469,20 @@
       <c r="AF141" t="n" s="10">
         <v>7.2</v>
       </c>
+      <c r="AG141" t="n" s="10">
+        <v>4.9</v>
+      </c>
+      <c r="AH141" t="n" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="AI141" t="n" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="AJ141"/>
     </row>
     <row r="142">
       <c r="A142" t="s" s="7">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B142" t="n" s="8">
         <v>1228.0</v>
@@ -15179,10 +16577,20 @@
       <c r="AF142" t="n" s="8">
         <v>1159.0</v>
       </c>
+      <c r="AG142" t="n" s="8">
+        <v>794.0</v>
+      </c>
+      <c r="AH142" t="n" s="8">
+        <v>648.0</v>
+      </c>
+      <c r="AI142" t="n" s="8">
+        <v>705.0</v>
+      </c>
+      <c r="AJ142"/>
     </row>
     <row r="143">
       <c r="A143" t="s" s="7">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B143" t="n" s="8">
         <v>13791.0</v>
@@ -15277,10 +16685,20 @@
       <c r="AF143" t="n" s="8">
         <v>14844.0</v>
       </c>
+      <c r="AG143" t="n" s="8">
+        <v>15561.0</v>
+      </c>
+      <c r="AH143" t="n" s="8">
+        <v>15888.0</v>
+      </c>
+      <c r="AI143" t="n" s="8">
+        <v>16642.0</v>
+      </c>
+      <c r="AJ143"/>
     </row>
     <row r="144">
       <c r="A144" t="s" s="7">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B144" t="n" s="8">
         <v>15019.0</v>
@@ -15375,10 +16793,20 @@
       <c r="AF144" t="n" s="8">
         <v>16003.0</v>
       </c>
+      <c r="AG144" t="n" s="8">
+        <v>16355.0</v>
+      </c>
+      <c r="AH144" t="n" s="8">
+        <v>16536.0</v>
+      </c>
+      <c r="AI144" t="n" s="8">
+        <v>17347.0</v>
+      </c>
+      <c r="AJ144"/>
     </row>
     <row r="145">
       <c r="A145" t="s" s="7">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B145" t="n" s="10">
         <v>7.1</v>
@@ -15426,10 +16854,10 @@
         <v>5.7</v>
       </c>
       <c r="Q145" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="R145" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="S145" t="n" s="10">
         <v>4.9</v>
@@ -15473,10 +16901,20 @@
       <c r="AF145" t="n" s="10">
         <v>12.4</v>
       </c>
+      <c r="AG145" t="n" s="10">
+        <v>8.3</v>
+      </c>
+      <c r="AH145" t="n" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="AI145" t="n" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="AJ145"/>
     </row>
     <row r="146">
       <c r="A146" t="s" s="7">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B146" t="n" s="8">
         <v>14655.0</v>
@@ -15524,10 +16962,10 @@
         <v>11194.0</v>
       </c>
       <c r="Q146" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="R146" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="S146" t="n" s="8">
         <v>5254.0</v>
@@ -15571,10 +17009,20 @@
       <c r="AF146" t="n" s="8">
         <v>22195.0</v>
       </c>
+      <c r="AG146" t="n" s="8">
+        <v>14673.0</v>
+      </c>
+      <c r="AH146" t="n" s="8">
+        <v>7832.0</v>
+      </c>
+      <c r="AI146" t="n" s="8">
+        <v>7830.0</v>
+      </c>
+      <c r="AJ146"/>
     </row>
     <row r="147">
       <c r="A147" t="s" s="7">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B147" t="n" s="8">
         <v>191741.0</v>
@@ -15622,10 +17070,10 @@
         <v>184267.0</v>
       </c>
       <c r="Q147" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="R147" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="S147" t="n" s="8">
         <v>102178.0</v>
@@ -15669,10 +17117,20 @@
       <c r="AF147" t="n" s="8">
         <v>156655.0</v>
       </c>
+      <c r="AG147" t="n" s="8">
+        <v>162126.0</v>
+      </c>
+      <c r="AH147" t="n" s="8">
+        <v>167464.0</v>
+      </c>
+      <c r="AI147" t="n" s="8">
+        <v>167786.0</v>
+      </c>
+      <c r="AJ147"/>
     </row>
     <row r="148">
       <c r="A148" t="s" s="7">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B148" t="n" s="8">
         <v>206396.0</v>
@@ -15720,10 +17178,10 @@
         <v>195461.0</v>
       </c>
       <c r="Q148" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="R148" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="S148" t="n" s="8">
         <v>107432.0</v>
@@ -15767,10 +17225,20 @@
       <c r="AF148" t="n" s="8">
         <v>178850.0</v>
       </c>
+      <c r="AG148" t="n" s="8">
+        <v>176799.0</v>
+      </c>
+      <c r="AH148" t="n" s="8">
+        <v>175296.0</v>
+      </c>
+      <c r="AI148" t="n" s="8">
+        <v>175616.0</v>
+      </c>
+      <c r="AJ148"/>
     </row>
     <row r="149">
       <c r="A149" t="s" s="7">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B149" t="n" s="10">
         <v>5.5</v>
@@ -15865,10 +17333,20 @@
       <c r="AF149" t="n" s="10">
         <v>7.8</v>
       </c>
+      <c r="AG149" t="n" s="10">
+        <v>5.2</v>
+      </c>
+      <c r="AH149" t="n" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="AI149" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AJ149"/>
     </row>
     <row r="150">
       <c r="A150" t="s" s="7">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B150" t="n" s="8">
         <v>3629.0</v>
@@ -15963,10 +17441,20 @@
       <c r="AF150" t="n" s="8">
         <v>5372.0</v>
       </c>
+      <c r="AG150" t="n" s="8">
+        <v>3584.0</v>
+      </c>
+      <c r="AH150" t="n" s="8">
+        <v>2551.0</v>
+      </c>
+      <c r="AI150" t="n" s="8">
+        <v>2643.0</v>
+      </c>
+      <c r="AJ150"/>
     </row>
     <row r="151">
       <c r="A151" t="s" s="7">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B151" t="n" s="8">
         <v>62104.0</v>
@@ -16061,10 +17549,20 @@
       <c r="AF151" t="n" s="8">
         <v>63661.0</v>
       </c>
+      <c r="AG151" t="n" s="8">
+        <v>65929.0</v>
+      </c>
+      <c r="AH151" t="n" s="8">
+        <v>67319.0</v>
+      </c>
+      <c r="AI151" t="n" s="8">
+        <v>67209.0</v>
+      </c>
+      <c r="AJ151"/>
     </row>
     <row r="152">
       <c r="A152" t="s" s="7">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B152" t="n" s="8">
         <v>65733.0</v>
@@ -16159,10 +17657,20 @@
       <c r="AF152" t="n" s="8">
         <v>69033.0</v>
       </c>
+      <c r="AG152" t="n" s="8">
+        <v>69513.0</v>
+      </c>
+      <c r="AH152" t="n" s="8">
+        <v>69870.0</v>
+      </c>
+      <c r="AI152" t="n" s="8">
+        <v>69852.0</v>
+      </c>
+      <c r="AJ152"/>
     </row>
     <row r="153">
       <c r="A153" t="s" s="7">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B153" t="n" s="10">
         <v>6.2</v>
@@ -16210,10 +17718,10 @@
         <v>5.3</v>
       </c>
       <c r="Q153" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="R153" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="S153" t="n" s="10">
         <v>3.8</v>
@@ -16257,10 +17765,20 @@
       <c r="AF153" t="n" s="10">
         <v>7.4</v>
       </c>
+      <c r="AG153" t="n" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="AH153" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AI153" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AJ153"/>
     </row>
     <row r="154">
       <c r="A154" t="s" s="7">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B154" t="n" s="8">
         <v>627.0</v>
@@ -16308,10 +17826,10 @@
         <v>611.0</v>
       </c>
       <c r="Q154" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="R154" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="S154" t="n" s="8">
         <v>339.0</v>
@@ -16355,10 +17873,20 @@
       <c r="AF154" t="n" s="8">
         <v>700.0</v>
       </c>
+      <c r="AG154" t="n" s="8">
+        <v>429.0</v>
+      </c>
+      <c r="AH154" t="n" s="8">
+        <v>313.0</v>
+      </c>
+      <c r="AI154" t="n" s="8">
+        <v>319.0</v>
+      </c>
+      <c r="AJ154"/>
     </row>
     <row r="155">
       <c r="A155" t="s" s="7">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B155" t="n" s="8">
         <v>9513.0</v>
@@ -16406,10 +17934,10 @@
         <v>10893.0</v>
       </c>
       <c r="Q155" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="R155" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="S155" t="n" s="8">
         <v>8660.0</v>
@@ -16453,10 +17981,20 @@
       <c r="AF155" t="n" s="8">
         <v>8782.0</v>
       </c>
+      <c r="AG155" t="n" s="8">
+        <v>9078.0</v>
+      </c>
+      <c r="AH155" t="n" s="8">
+        <v>9414.0</v>
+      </c>
+      <c r="AI155" t="n" s="8">
+        <v>9443.0</v>
+      </c>
+      <c r="AJ155"/>
     </row>
     <row r="156">
       <c r="A156" t="s" s="7">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B156" t="n" s="8">
         <v>10140.0</v>
@@ -16504,10 +18042,10 @@
         <v>11504.0</v>
       </c>
       <c r="Q156" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="R156" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="S156" t="n" s="8">
         <v>8999.0</v>
@@ -16551,10 +18089,20 @@
       <c r="AF156" t="n" s="8">
         <v>9482.0</v>
       </c>
+      <c r="AG156" t="n" s="8">
+        <v>9507.0</v>
+      </c>
+      <c r="AH156" t="n" s="8">
+        <v>9727.0</v>
+      </c>
+      <c r="AI156" t="n" s="8">
+        <v>9762.0</v>
+      </c>
+      <c r="AJ156"/>
     </row>
     <row r="157">
       <c r="A157" t="s" s="7">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B157" t="n" s="10">
         <v>9.5</v>
@@ -16649,10 +18197,20 @@
       <c r="AF157" t="n" s="10">
         <v>8.3</v>
       </c>
+      <c r="AG157" t="n" s="10">
+        <v>5.8</v>
+      </c>
+      <c r="AH157" t="n" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="AI157" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AJ157"/>
     </row>
     <row r="158">
       <c r="A158" t="s" s="7">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B158" t="n" s="8">
         <v>852.0</v>
@@ -16747,10 +18305,20 @@
       <c r="AF158" t="n" s="8">
         <v>781.0</v>
       </c>
+      <c r="AG158" t="n" s="8">
+        <v>557.0</v>
+      </c>
+      <c r="AH158" t="n" s="8">
+        <v>377.0</v>
+      </c>
+      <c r="AI158" t="n" s="8">
+        <v>368.0</v>
+      </c>
+      <c r="AJ158"/>
     </row>
     <row r="159">
       <c r="A159" t="s" s="7">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B159" t="n" s="8">
         <v>8157.0</v>
@@ -16845,10 +18413,20 @@
       <c r="AF159" t="n" s="8">
         <v>8619.0</v>
       </c>
+      <c r="AG159" t="n" s="8">
+        <v>9024.0</v>
+      </c>
+      <c r="AH159" t="n" s="8">
+        <v>9384.0</v>
+      </c>
+      <c r="AI159" t="n" s="8">
+        <v>9432.0</v>
+      </c>
+      <c r="AJ159"/>
     </row>
     <row r="160">
       <c r="A160" t="s" s="7">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B160" t="n" s="8">
         <v>9009.0</v>
@@ -16943,10 +18521,20 @@
       <c r="AF160" t="n" s="8">
         <v>9400.0</v>
       </c>
+      <c r="AG160" t="n" s="8">
+        <v>9581.0</v>
+      </c>
+      <c r="AH160" t="n" s="8">
+        <v>9761.0</v>
+      </c>
+      <c r="AI160" t="n" s="8">
+        <v>9800.0</v>
+      </c>
+      <c r="AJ160"/>
     </row>
     <row r="161">
       <c r="A161" t="s" s="7">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B161" t="n" s="10">
         <v>6.0</v>
@@ -17041,10 +18629,20 @@
       <c r="AF161" t="n" s="10">
         <v>6.6</v>
       </c>
+      <c r="AG161" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="AH161" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AI161" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AJ161"/>
     </row>
     <row r="162">
       <c r="A162" t="s" s="7">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B162" t="n" s="8">
         <v>3333.0</v>
@@ -17139,10 +18737,20 @@
       <c r="AF162" t="n" s="8">
         <v>3600.0</v>
       </c>
+      <c r="AG162" t="n" s="8">
+        <v>2312.0</v>
+      </c>
+      <c r="AH162" t="n" s="8">
+        <v>1794.0</v>
+      </c>
+      <c r="AI162" t="n" s="8">
+        <v>1910.0</v>
+      </c>
+      <c r="AJ162"/>
     </row>
     <row r="163">
       <c r="A163" t="s" s="7">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B163" t="n" s="8">
         <v>52556.0</v>
@@ -17237,10 +18845,20 @@
       <c r="AF163" t="n" s="8">
         <v>50813.0</v>
       </c>
+      <c r="AG163" t="n" s="8">
+        <v>52773.0</v>
+      </c>
+      <c r="AH163" t="n" s="8">
+        <v>53441.0</v>
+      </c>
+      <c r="AI163" t="n" s="8">
+        <v>52770.0</v>
+      </c>
+      <c r="AJ163"/>
     </row>
     <row r="164">
       <c r="A164" t="s" s="7">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B164" t="n" s="8">
         <v>55889.0</v>
@@ -17335,10 +18953,20 @@
       <c r="AF164" t="n" s="8">
         <v>54413.0</v>
       </c>
+      <c r="AG164" t="n" s="8">
+        <v>55085.0</v>
+      </c>
+      <c r="AH164" t="n" s="8">
+        <v>55235.0</v>
+      </c>
+      <c r="AI164" t="n" s="8">
+        <v>54680.0</v>
+      </c>
+      <c r="AJ164"/>
     </row>
     <row r="165">
       <c r="A165" t="s" s="7">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B165" t="n" s="10">
         <v>8.3</v>
@@ -17433,10 +19061,20 @@
       <c r="AF165" t="n" s="10">
         <v>6.6</v>
       </c>
+      <c r="AG165" t="n" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="AH165" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AI165" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AJ165"/>
     </row>
     <row r="166">
       <c r="A166" t="s" s="7">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B166" t="n" s="8">
         <v>307.0</v>
@@ -17531,10 +19169,20 @@
       <c r="AF166" t="n" s="8">
         <v>234.0</v>
       </c>
+      <c r="AG166" t="n" s="8">
+        <v>164.0</v>
+      </c>
+      <c r="AH166" t="n" s="8">
+        <v>126.0</v>
+      </c>
+      <c r="AI166" t="n" s="8">
+        <v>133.0</v>
+      </c>
+      <c r="AJ166"/>
     </row>
     <row r="167">
       <c r="A167" t="s" s="7">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B167" t="n" s="8">
         <v>3392.0</v>
@@ -17629,10 +19277,20 @@
       <c r="AF167" t="n" s="8">
         <v>3331.0</v>
       </c>
+      <c r="AG167" t="n" s="8">
+        <v>3496.0</v>
+      </c>
+      <c r="AH167" t="n" s="8">
+        <v>3615.0</v>
+      </c>
+      <c r="AI167" t="n" s="8">
+        <v>3655.0</v>
+      </c>
+      <c r="AJ167"/>
     </row>
     <row r="168">
       <c r="A168" t="s" s="7">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B168" t="n" s="8">
         <v>3699.0</v>
@@ -17727,10 +19385,20 @@
       <c r="AF168" t="n" s="8">
         <v>3565.0</v>
       </c>
+      <c r="AG168" t="n" s="8">
+        <v>3660.0</v>
+      </c>
+      <c r="AH168" t="n" s="8">
+        <v>3741.0</v>
+      </c>
+      <c r="AI168" t="n" s="8">
+        <v>3788.0</v>
+      </c>
+      <c r="AJ168"/>
     </row>
     <row r="169">
       <c r="A169" t="s" s="7">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B169" t="n" s="10">
         <v>9.0</v>
@@ -17825,10 +19493,20 @@
       <c r="AF169" t="n" s="10">
         <v>8.1</v>
       </c>
+      <c r="AG169" t="n" s="10">
+        <v>5.4</v>
+      </c>
+      <c r="AH169" t="n" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="AI169" t="n" s="10">
+        <v>4.6</v>
+      </c>
+      <c r="AJ169"/>
     </row>
     <row r="170">
       <c r="A170" t="s" s="7">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B170" t="n" s="8">
         <v>756.0</v>
@@ -17923,10 +19601,20 @@
       <c r="AF170" t="n" s="8">
         <v>649.0</v>
       </c>
+      <c r="AG170" t="n" s="8">
+        <v>436.0</v>
+      </c>
+      <c r="AH170" t="n" s="8">
+        <v>333.0</v>
+      </c>
+      <c r="AI170" t="n" s="8">
+        <v>374.0</v>
+      </c>
+      <c r="AJ170"/>
     </row>
     <row r="171">
       <c r="A171" t="s" s="7">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B171" t="n" s="8">
         <v>7648.0</v>
@@ -18021,10 +19709,20 @@
       <c r="AF171" t="n" s="8">
         <v>7407.0</v>
       </c>
+      <c r="AG171" t="n" s="8">
+        <v>7665.0</v>
+      </c>
+      <c r="AH171" t="n" s="8">
+        <v>7836.0</v>
+      </c>
+      <c r="AI171" t="n" s="8">
+        <v>7793.0</v>
+      </c>
+      <c r="AJ171"/>
     </row>
     <row r="172">
       <c r="A172" t="s" s="7">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B172" t="n" s="8">
         <v>8404.0</v>
@@ -18119,10 +19817,20 @@
       <c r="AF172" t="n" s="8">
         <v>8056.0</v>
       </c>
+      <c r="AG172" t="n" s="8">
+        <v>8101.0</v>
+      </c>
+      <c r="AH172" t="n" s="8">
+        <v>8169.0</v>
+      </c>
+      <c r="AI172" t="n" s="8">
+        <v>8167.0</v>
+      </c>
+      <c r="AJ172"/>
     </row>
     <row r="173">
       <c r="A173" t="s" s="7">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B173" t="n" s="10">
         <v>4.5</v>
@@ -18217,10 +19925,20 @@
       <c r="AF173" t="n" s="10">
         <v>5.9</v>
       </c>
+      <c r="AG173" t="n" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="AH173" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AI173" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AJ173"/>
     </row>
     <row r="174">
       <c r="A174" t="s" s="7">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B174" t="n" s="8">
         <v>378.0</v>
@@ -18315,10 +20033,20 @@
       <c r="AF174" t="n" s="8">
         <v>540.0</v>
       </c>
+      <c r="AG174" t="n" s="8">
+        <v>357.0</v>
+      </c>
+      <c r="AH174" t="n" s="8">
+        <v>299.0</v>
+      </c>
+      <c r="AI174" t="n" s="8">
+        <v>354.0</v>
+      </c>
+      <c r="AJ174"/>
     </row>
     <row r="175">
       <c r="A175" t="s" s="7">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B175" t="n" s="8">
         <v>8072.0</v>
@@ -18413,10 +20141,20 @@
       <c r="AF175" t="n" s="8">
         <v>8618.0</v>
       </c>
+      <c r="AG175" t="n" s="8">
+        <v>8854.0</v>
+      </c>
+      <c r="AH175" t="n" s="8">
+        <v>8926.0</v>
+      </c>
+      <c r="AI175" t="n" s="8">
+        <v>9013.0</v>
+      </c>
+      <c r="AJ175"/>
     </row>
     <row r="176">
       <c r="A176" t="s" s="7">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B176" t="n" s="8">
         <v>8450.0</v>
@@ -18511,10 +20249,20 @@
       <c r="AF176" t="n" s="8">
         <v>9158.0</v>
       </c>
+      <c r="AG176" t="n" s="8">
+        <v>9211.0</v>
+      </c>
+      <c r="AH176" t="n" s="8">
+        <v>9225.0</v>
+      </c>
+      <c r="AI176" t="n" s="8">
+        <v>9367.0</v>
+      </c>
+      <c r="AJ176"/>
     </row>
     <row r="177">
       <c r="A177" t="s" s="7">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B177" t="n" s="10">
         <v>7.8</v>
@@ -18562,10 +20310,10 @@
         <v>5.2</v>
       </c>
       <c r="Q177" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="R177" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="S177" t="n" s="10">
         <v>4.2</v>
@@ -18609,10 +20357,20 @@
       <c r="AF177" t="n" s="10">
         <v>10.4</v>
       </c>
+      <c r="AG177" t="n" s="10">
+        <v>6.9</v>
+      </c>
+      <c r="AH177" t="n" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="AI177" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="AJ177"/>
     </row>
     <row r="178">
       <c r="A178" t="s" s="7">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B178" t="n" s="8">
         <v>2449.0</v>
@@ -18660,10 +20418,10 @@
         <v>1588.0</v>
       </c>
       <c r="Q178" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="R178" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="S178" t="n" s="8">
         <v>406.0</v>
@@ -18707,10 +20465,20 @@
       <c r="AF178" t="n" s="8">
         <v>2076.0</v>
       </c>
+      <c r="AG178" t="n" s="8">
+        <v>1359.0</v>
+      </c>
+      <c r="AH178" t="n" s="8">
+        <v>805.0</v>
+      </c>
+      <c r="AI178" t="n" s="8">
+        <v>838.0</v>
+      </c>
+      <c r="AJ178"/>
     </row>
     <row r="179">
       <c r="A179" t="s" s="7">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B179" t="n" s="8">
         <v>28840.0</v>
@@ -18758,10 +20526,10 @@
         <v>28899.0</v>
       </c>
       <c r="Q179" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="R179" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="S179" t="n" s="8">
         <v>9335.0</v>
@@ -18805,10 +20573,20 @@
       <c r="AF179" t="n" s="8">
         <v>17818.0</v>
       </c>
+      <c r="AG179" t="n" s="8">
+        <v>18452.0</v>
+      </c>
+      <c r="AH179" t="n" s="8">
+        <v>19061.0</v>
+      </c>
+      <c r="AI179" t="n" s="8">
+        <v>19099.0</v>
+      </c>
+      <c r="AJ179"/>
     </row>
     <row r="180">
       <c r="A180" t="s" s="7">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B180" t="n" s="8">
         <v>31289.0</v>
@@ -18856,10 +20634,10 @@
         <v>30487.0</v>
       </c>
       <c r="Q180" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="R180" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="S180" t="n" s="8">
         <v>9741.0</v>
@@ -18903,10 +20681,20 @@
       <c r="AF180" t="n" s="8">
         <v>19894.0</v>
       </c>
+      <c r="AG180" t="n" s="8">
+        <v>19811.0</v>
+      </c>
+      <c r="AH180" t="n" s="8">
+        <v>19866.0</v>
+      </c>
+      <c r="AI180" t="n" s="8">
+        <v>19937.0</v>
+      </c>
+      <c r="AJ180"/>
     </row>
     <row r="181">
       <c r="A181" t="s" s="7">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B181" t="n" s="10">
         <v>6.1</v>
@@ -18954,10 +20742,10 @@
         <v>5.1</v>
       </c>
       <c r="Q181" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="R181" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="S181" t="n" s="10">
         <v>3.7</v>
@@ -19001,10 +20789,20 @@
       <c r="AF181" t="n" s="10">
         <v>8.1</v>
       </c>
+      <c r="AG181" t="n" s="10">
+        <v>5.1</v>
+      </c>
+      <c r="AH181" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AI181" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AJ181"/>
     </row>
     <row r="182">
       <c r="A182" t="s" s="7">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B182" t="n" s="8">
         <v>1198.0</v>
@@ -19052,10 +20850,10 @@
         <v>1207.0</v>
       </c>
       <c r="Q182" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="R182" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="S182" t="n" s="8">
         <v>961.0</v>
@@ -19099,10 +20897,20 @@
       <c r="AF182" t="n" s="8">
         <v>1973.0</v>
       </c>
+      <c r="AG182" t="n" s="8">
+        <v>1247.0</v>
+      </c>
+      <c r="AH182" t="n" s="8">
+        <v>817.0</v>
+      </c>
+      <c r="AI182" t="n" s="8">
+        <v>791.0</v>
+      </c>
+      <c r="AJ182"/>
     </row>
     <row r="183">
       <c r="A183" t="s" s="7">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B183" t="n" s="8">
         <v>18448.0</v>
@@ -19150,10 +20958,10 @@
         <v>22683.0</v>
       </c>
       <c r="Q183" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="R183" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="S183" t="n" s="8">
         <v>25270.0</v>
@@ -19197,10 +21005,20 @@
       <c r="AF183" t="n" s="8">
         <v>22268.0</v>
       </c>
+      <c r="AG183" t="n" s="8">
+        <v>23029.0</v>
+      </c>
+      <c r="AH183" t="n" s="8">
+        <v>23808.0</v>
+      </c>
+      <c r="AI183" t="n" s="8">
+        <v>23859.0</v>
+      </c>
+      <c r="AJ183"/>
     </row>
     <row r="184">
       <c r="A184" t="s" s="7">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B184" t="n" s="8">
         <v>19646.0</v>
@@ -19248,10 +21066,10 @@
         <v>23890.0</v>
       </c>
       <c r="Q184" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="R184" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="S184" t="n" s="8">
         <v>26231.0</v>
@@ -19295,10 +21113,20 @@
       <c r="AF184" t="n" s="8">
         <v>24241.0</v>
       </c>
+      <c r="AG184" t="n" s="8">
+        <v>24276.0</v>
+      </c>
+      <c r="AH184" t="n" s="8">
+        <v>24625.0</v>
+      </c>
+      <c r="AI184" t="n" s="8">
+        <v>24650.0</v>
+      </c>
+      <c r="AJ184"/>
     </row>
     <row r="185">
       <c r="A185" t="s" s="7">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B185" t="n" s="10">
         <v>6.6</v>
@@ -19393,10 +21221,20 @@
       <c r="AF185" t="n" s="10">
         <v>12.1</v>
       </c>
+      <c r="AG185" t="n" s="10">
+        <v>9.1</v>
+      </c>
+      <c r="AH185" t="n" s="10">
+        <v>5.3</v>
+      </c>
+      <c r="AI185" t="n" s="10">
+        <v>5.3</v>
+      </c>
+      <c r="AJ185"/>
     </row>
     <row r="186">
       <c r="A186" t="s" s="7">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B186" t="n" s="8">
         <v>240.0</v>
@@ -19491,10 +21329,20 @@
       <c r="AF186" t="n" s="8">
         <v>512.0</v>
       </c>
+      <c r="AG186" t="n" s="8">
+        <v>390.0</v>
+      </c>
+      <c r="AH186" t="n" s="8">
+        <v>227.0</v>
+      </c>
+      <c r="AI186" t="n" s="8">
+        <v>226.0</v>
+      </c>
+      <c r="AJ186"/>
     </row>
     <row r="187">
       <c r="A187" t="s" s="7">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B187" t="n" s="8">
         <v>3393.0</v>
@@ -19589,10 +21437,20 @@
       <c r="AF187" t="n" s="8">
         <v>3705.0</v>
       </c>
+      <c r="AG187" t="n" s="8">
+        <v>3880.0</v>
+      </c>
+      <c r="AH187" t="n" s="8">
+        <v>4031.0</v>
+      </c>
+      <c r="AI187" t="n" s="8">
+        <v>4050.0</v>
+      </c>
+      <c r="AJ187"/>
     </row>
     <row r="188">
       <c r="A188" t="s" s="7">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B188" t="n" s="8">
         <v>3633.0</v>
@@ -19687,10 +21545,20 @@
       <c r="AF188" t="n" s="8">
         <v>4217.0</v>
       </c>
+      <c r="AG188" t="n" s="8">
+        <v>4270.0</v>
+      </c>
+      <c r="AH188" t="n" s="8">
+        <v>4258.0</v>
+      </c>
+      <c r="AI188" t="n" s="8">
+        <v>4276.0</v>
+      </c>
+      <c r="AJ188"/>
     </row>
     <row r="189">
       <c r="A189" t="s" s="7">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B189" t="n" s="10">
         <v>7.9</v>
@@ -19785,10 +21653,20 @@
       <c r="AF189" t="n" s="10">
         <v>10.3</v>
       </c>
+      <c r="AG189" t="n" s="10">
+        <v>7.4</v>
+      </c>
+      <c r="AH189" t="n" s="10">
+        <v>4.6</v>
+      </c>
+      <c r="AI189" t="n" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="AJ189"/>
     </row>
     <row r="190">
       <c r="A190" t="s" s="7">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B190" t="n" s="8">
         <v>701.0</v>
@@ -19883,10 +21761,20 @@
       <c r="AF190" t="n" s="8">
         <v>904.0</v>
       </c>
+      <c r="AG190" t="n" s="8">
+        <v>655.0</v>
+      </c>
+      <c r="AH190" t="n" s="8">
+        <v>407.0</v>
+      </c>
+      <c r="AI190" t="n" s="8">
+        <v>396.0</v>
+      </c>
+      <c r="AJ190"/>
     </row>
     <row r="191">
       <c r="A191" t="s" s="7">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B191" t="n" s="8">
         <v>8166.0</v>
@@ -19981,10 +21869,20 @@
       <c r="AF191" t="n" s="8">
         <v>7892.0</v>
       </c>
+      <c r="AG191" t="n" s="8">
+        <v>8151.0</v>
+      </c>
+      <c r="AH191" t="n" s="8">
+        <v>8444.0</v>
+      </c>
+      <c r="AI191" t="n" s="8">
+        <v>8467.0</v>
+      </c>
+      <c r="AJ191"/>
     </row>
     <row r="192">
       <c r="A192" t="s" s="7">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B192" t="n" s="8">
         <v>8867.0</v>
@@ -20079,10 +21977,20 @@
       <c r="AF192" t="n" s="8">
         <v>8796.0</v>
       </c>
+      <c r="AG192" t="n" s="8">
+        <v>8806.0</v>
+      </c>
+      <c r="AH192" t="n" s="8">
+        <v>8851.0</v>
+      </c>
+      <c r="AI192" t="n" s="8">
+        <v>8863.0</v>
+      </c>
+      <c r="AJ192"/>
     </row>
     <row r="193">
       <c r="A193" t="s" s="7">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B193" t="n" s="10">
         <v>8.0</v>
@@ -20130,10 +22038,10 @@
         <v>6.6</v>
       </c>
       <c r="Q193" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="R193" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="S193" t="n" s="10">
         <v>4.8</v>
@@ -20177,10 +22085,20 @@
       <c r="AF193" t="n" s="10">
         <v>11.6</v>
       </c>
+      <c r="AG193" t="n" s="10">
+        <v>8.6</v>
+      </c>
+      <c r="AH193" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="AI193" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AJ193"/>
     </row>
     <row r="194">
       <c r="A194" t="s" s="7">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B194" t="n" s="8">
         <v>1432.0</v>
@@ -20228,10 +22146,10 @@
         <v>1356.0</v>
       </c>
       <c r="Q194" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="R194" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="S194" t="n" s="8">
         <v>1082.0</v>
@@ -20275,10 +22193,20 @@
       <c r="AF194" t="n" s="8">
         <v>2222.0</v>
       </c>
+      <c r="AG194" t="n" s="8">
+        <v>1636.0</v>
+      </c>
+      <c r="AH194" t="n" s="8">
+        <v>945.0</v>
+      </c>
+      <c r="AI194" t="n" s="8">
+        <v>834.0</v>
+      </c>
+      <c r="AJ194"/>
     </row>
     <row r="195">
       <c r="A195" t="s" s="7">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B195" t="n" s="8">
         <v>16503.0</v>
@@ -20326,10 +22254,10 @@
         <v>19088.0</v>
       </c>
       <c r="Q195" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="R195" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="S195" t="n" s="8">
         <v>21376.0</v>
@@ -20373,10 +22301,20 @@
       <c r="AF195" t="n" s="8">
         <v>16863.0</v>
       </c>
+      <c r="AG195" t="n" s="8">
+        <v>17429.0</v>
+      </c>
+      <c r="AH195" t="n" s="8">
+        <v>18027.0</v>
+      </c>
+      <c r="AI195" t="n" s="8">
+        <v>18067.0</v>
+      </c>
+      <c r="AJ195"/>
     </row>
     <row r="196">
       <c r="A196" t="s" s="7">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B196" t="n" s="8">
         <v>17935.0</v>
@@ -20424,10 +22362,10 @@
         <v>20444.0</v>
       </c>
       <c r="Q196" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="R196" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="S196" t="n" s="8">
         <v>22458.0</v>
@@ -20471,10 +22409,20 @@
       <c r="AF196" t="n" s="8">
         <v>19085.0</v>
       </c>
+      <c r="AG196" t="n" s="8">
+        <v>19065.0</v>
+      </c>
+      <c r="AH196" t="n" s="8">
+        <v>18972.0</v>
+      </c>
+      <c r="AI196" t="n" s="8">
+        <v>18901.0</v>
+      </c>
+      <c r="AJ196"/>
     </row>
     <row r="197">
       <c r="A197" t="s" s="7">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B197" t="n" s="10">
         <v>8.4</v>
@@ -20569,10 +22517,20 @@
       <c r="AF197" t="n" s="10">
         <v>9.1</v>
       </c>
+      <c r="AG197" t="n" s="10">
+        <v>6.4</v>
+      </c>
+      <c r="AH197" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AI197" t="n" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="AJ197"/>
     </row>
     <row r="198">
       <c r="A198" t="s" s="7">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B198" t="n" s="8">
         <v>2499.0</v>
@@ -20667,10 +22625,20 @@
       <c r="AF198" t="n" s="8">
         <v>2927.0</v>
       </c>
+      <c r="AG198" t="n" s="8">
+        <v>2042.0</v>
+      </c>
+      <c r="AH198" t="n" s="8">
+        <v>1407.0</v>
+      </c>
+      <c r="AI198" t="n" s="8">
+        <v>1424.0</v>
+      </c>
+      <c r="AJ198"/>
     </row>
     <row r="199">
       <c r="A199" t="s" s="7">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B199" t="n" s="8">
         <v>27260.0</v>
@@ -20765,10 +22733,20 @@
       <c r="AF199" t="n" s="8">
         <v>29087.0</v>
       </c>
+      <c r="AG199" t="n" s="8">
+        <v>29916.0</v>
+      </c>
+      <c r="AH199" t="n" s="8">
+        <v>30315.0</v>
+      </c>
+      <c r="AI199" t="n" s="8">
+        <v>30384.0</v>
+      </c>
+      <c r="AJ199"/>
     </row>
     <row r="200">
       <c r="A200" t="s" s="7">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B200" t="n" s="8">
         <v>29759.0</v>
@@ -20863,10 +22841,20 @@
       <c r="AF200" t="n" s="8">
         <v>32014.0</v>
       </c>
+      <c r="AG200" t="n" s="8">
+        <v>31958.0</v>
+      </c>
+      <c r="AH200" t="n" s="8">
+        <v>31722.0</v>
+      </c>
+      <c r="AI200" t="n" s="8">
+        <v>31808.0</v>
+      </c>
+      <c r="AJ200"/>
     </row>
     <row r="201">
       <c r="A201" t="s" s="7">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B201" t="n" s="10">
         <v>5.7</v>
@@ -20961,10 +22949,20 @@
       <c r="AF201" t="n" s="10">
         <v>8.6</v>
       </c>
+      <c r="AG201" t="n" s="10">
+        <v>5.8</v>
+      </c>
+      <c r="AH201" t="n" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="AI201" t="n" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="AJ201"/>
     </row>
     <row r="202">
       <c r="A202" t="s" s="7">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B202" t="n" s="8">
         <v>1074.0</v>
@@ -21059,10 +23057,20 @@
       <c r="AF202" t="n" s="8">
         <v>1859.0</v>
       </c>
+      <c r="AG202" t="n" s="8">
+        <v>1254.0</v>
+      </c>
+      <c r="AH202" t="n" s="8">
+        <v>802.0</v>
+      </c>
+      <c r="AI202" t="n" s="8">
+        <v>785.0</v>
+      </c>
+      <c r="AJ202"/>
     </row>
     <row r="203">
       <c r="A203" t="s" s="7">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B203" t="n" s="8">
         <v>17905.0</v>
@@ -21157,10 +23165,20 @@
       <c r="AF203" t="n" s="8">
         <v>19808.0</v>
       </c>
+      <c r="AG203" t="n" s="8">
+        <v>20550.0</v>
+      </c>
+      <c r="AH203" t="n" s="8">
+        <v>21126.0</v>
+      </c>
+      <c r="AI203" t="n" s="8">
+        <v>21227.0</v>
+      </c>
+      <c r="AJ203"/>
     </row>
     <row r="204">
       <c r="A204" t="s" s="7">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B204" t="n" s="8">
         <v>18979.0</v>
@@ -21255,10 +23273,20 @@
       <c r="AF204" t="n" s="8">
         <v>21667.0</v>
       </c>
+      <c r="AG204" t="n" s="8">
+        <v>21804.0</v>
+      </c>
+      <c r="AH204" t="n" s="8">
+        <v>21928.0</v>
+      </c>
+      <c r="AI204" t="n" s="8">
+        <v>22012.0</v>
+      </c>
+      <c r="AJ204"/>
     </row>
     <row r="205">
       <c r="A205" t="s" s="7">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B205" t="n" s="10">
         <v>6.3</v>
@@ -21353,10 +23381,20 @@
       <c r="AF205" t="n" s="10">
         <v>9.6</v>
       </c>
+      <c r="AG205" t="n" s="10">
+        <v>6.8</v>
+      </c>
+      <c r="AH205" t="n" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="AI205" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="AJ205"/>
     </row>
     <row r="206">
       <c r="A206" t="s" s="7">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B206" t="n" s="8">
         <v>1560.0</v>
@@ -21451,10 +23489,20 @@
       <c r="AF206" t="n" s="8">
         <v>1856.0</v>
       </c>
+      <c r="AG206" t="n" s="8">
+        <v>1303.0</v>
+      </c>
+      <c r="AH206" t="n" s="8">
+        <v>813.0</v>
+      </c>
+      <c r="AI206" t="n" s="8">
+        <v>800.0</v>
+      </c>
+      <c r="AJ206"/>
     </row>
     <row r="207">
       <c r="A207" t="s" s="7">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B207" t="n" s="8">
         <v>23092.0</v>
@@ -21549,10 +23597,20 @@
       <c r="AF207" t="n" s="8">
         <v>17425.0</v>
       </c>
+      <c r="AG207" t="n" s="8">
+        <v>17751.0</v>
+      </c>
+      <c r="AH207" t="n" s="8">
+        <v>18263.0</v>
+      </c>
+      <c r="AI207" t="n" s="8">
+        <v>18261.0</v>
+      </c>
+      <c r="AJ207"/>
     </row>
     <row r="208">
       <c r="A208" t="s" s="7">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B208" t="n" s="8">
         <v>24652.0</v>
@@ -21647,10 +23705,20 @@
       <c r="AF208" t="n" s="8">
         <v>19281.0</v>
       </c>
+      <c r="AG208" t="n" s="8">
+        <v>19054.0</v>
+      </c>
+      <c r="AH208" t="n" s="8">
+        <v>19076.0</v>
+      </c>
+      <c r="AI208" t="n" s="8">
+        <v>19061.0</v>
+      </c>
+      <c r="AJ208"/>
     </row>
     <row r="209">
       <c r="A209" t="s" s="7">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B209" t="n" s="10">
         <v>5.9</v>
@@ -21698,10 +23766,10 @@
         <v>4.2</v>
       </c>
       <c r="Q209" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="R209" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="S209" t="n" s="10">
         <v>3.1</v>
@@ -21745,10 +23813,20 @@
       <c r="AF209" t="n" s="10">
         <v>7.0</v>
       </c>
+      <c r="AG209" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="AH209" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AI209" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AJ209"/>
     </row>
     <row r="210">
       <c r="A210" t="s" s="7">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B210" t="n" s="8">
         <v>4048.0</v>
@@ -21796,10 +23874,10 @@
         <v>4318.0</v>
       </c>
       <c r="Q210" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="R210" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="S210" t="n" s="8">
         <v>3595.0</v>
@@ -21843,10 +23921,20 @@
       <c r="AF210" t="n" s="8">
         <v>8178.0</v>
       </c>
+      <c r="AG210" t="n" s="8">
+        <v>4664.0</v>
+      </c>
+      <c r="AH210" t="n" s="8">
+        <v>3493.0</v>
+      </c>
+      <c r="AI210" t="n" s="8">
+        <v>3899.0</v>
+      </c>
+      <c r="AJ210"/>
     </row>
     <row r="211">
       <c r="A211" t="s" s="7">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B211" t="n" s="8">
         <v>64177.0</v>
@@ -21894,10 +23982,10 @@
         <v>99363.0</v>
       </c>
       <c r="Q211" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="R211" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="S211" t="n" s="8">
         <v>112677.0</v>
@@ -21941,10 +24029,20 @@
       <c r="AF211" t="n" s="8">
         <v>107919.0</v>
       </c>
+      <c r="AG211" t="n" s="8">
+        <v>111733.0</v>
+      </c>
+      <c r="AH211" t="n" s="8">
+        <v>115374.0</v>
+      </c>
+      <c r="AI211" t="n" s="8">
+        <v>115587.0</v>
+      </c>
+      <c r="AJ211"/>
     </row>
     <row r="212">
       <c r="A212" t="s" s="7">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B212" t="n" s="8">
         <v>68225.0</v>
@@ -21992,10 +24090,10 @@
         <v>103681.0</v>
       </c>
       <c r="Q212" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="R212" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="S212" t="n" s="8">
         <v>116272.0</v>
@@ -22039,10 +24137,20 @@
       <c r="AF212" t="n" s="8">
         <v>116097.0</v>
       </c>
+      <c r="AG212" t="n" s="8">
+        <v>116397.0</v>
+      </c>
+      <c r="AH212" t="n" s="8">
+        <v>118867.0</v>
+      </c>
+      <c r="AI212" t="n" s="8">
+        <v>119486.0</v>
+      </c>
+      <c r="AJ212"/>
     </row>
     <row r="213">
       <c r="A213" t="s" s="7">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B213" t="n" s="10">
         <v>9.3</v>
@@ -22137,10 +24245,20 @@
       <c r="AF213" t="n" s="10">
         <v>10.0</v>
       </c>
+      <c r="AG213" t="n" s="10">
+        <v>6.5</v>
+      </c>
+      <c r="AH213" t="n" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="AI213" t="n" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="AJ213"/>
     </row>
     <row r="214">
       <c r="A214" t="s" s="7">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B214" t="n" s="8">
         <v>3290.0</v>
@@ -22235,10 +24353,20 @@
       <c r="AF214" t="n" s="8">
         <v>5593.0</v>
       </c>
+      <c r="AG214" t="n" s="8">
+        <v>3647.0</v>
+      </c>
+      <c r="AH214" t="n" s="8">
+        <v>2427.0</v>
+      </c>
+      <c r="AI214" t="n" s="8">
+        <v>2460.0</v>
+      </c>
+      <c r="AJ214"/>
     </row>
     <row r="215">
       <c r="A215" t="s" s="7">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B215" t="n" s="8">
         <v>31977.0</v>
@@ -22333,10 +24461,20 @@
       <c r="AF215" t="n" s="8">
         <v>50250.0</v>
       </c>
+      <c r="AG215" t="n" s="8">
+        <v>52330.0</v>
+      </c>
+      <c r="AH215" t="n" s="8">
+        <v>54026.0</v>
+      </c>
+      <c r="AI215" t="n" s="8">
+        <v>54898.0</v>
+      </c>
+      <c r="AJ215"/>
     </row>
     <row r="216">
       <c r="A216" t="s" s="7">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B216" t="n" s="8">
         <v>35267.0</v>
@@ -22431,10 +24569,20 @@
       <c r="AF216" t="n" s="8">
         <v>55843.0</v>
       </c>
+      <c r="AG216" t="n" s="8">
+        <v>55977.0</v>
+      </c>
+      <c r="AH216" t="n" s="8">
+        <v>56453.0</v>
+      </c>
+      <c r="AI216" t="n" s="8">
+        <v>57358.0</v>
+      </c>
+      <c r="AJ216"/>
     </row>
     <row r="217">
       <c r="A217" t="s" s="7">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B217" t="n" s="10">
         <v>7.5</v>
@@ -22529,10 +24677,20 @@
       <c r="AF217" t="n" s="10">
         <v>8.9</v>
       </c>
+      <c r="AG217" t="n" s="10">
+        <v>6.1</v>
+      </c>
+      <c r="AH217" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="AI217" t="n" s="10">
+        <v>5.1</v>
+      </c>
+      <c r="AJ217"/>
     </row>
     <row r="218">
       <c r="A218" t="s" s="7">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B218" t="n" s="8">
         <v>198.0</v>
@@ -22627,10 +24785,20 @@
       <c r="AF218" t="n" s="8">
         <v>119.0</v>
       </c>
+      <c r="AG218" t="n" s="8">
+        <v>80.0</v>
+      </c>
+      <c r="AH218" t="n" s="8">
+        <v>65.0</v>
+      </c>
+      <c r="AI218" t="n" s="8">
+        <v>68.0</v>
+      </c>
+      <c r="AJ218"/>
     </row>
     <row r="219">
       <c r="A219" t="s" s="7">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B219" t="n" s="8">
         <v>2456.0</v>
@@ -22725,10 +24893,20 @@
       <c r="AF219" t="n" s="8">
         <v>1216.0</v>
       </c>
+      <c r="AG219" t="n" s="8">
+        <v>1233.0</v>
+      </c>
+      <c r="AH219" t="n" s="8">
+        <v>1239.0</v>
+      </c>
+      <c r="AI219" t="n" s="8">
+        <v>1254.0</v>
+      </c>
+      <c r="AJ219"/>
     </row>
     <row r="220">
       <c r="A220" t="s" s="7">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B220" t="n" s="8">
         <v>2654.0</v>
@@ -22823,10 +25001,20 @@
       <c r="AF220" t="n" s="8">
         <v>1335.0</v>
       </c>
+      <c r="AG220" t="n" s="8">
+        <v>1313.0</v>
+      </c>
+      <c r="AH220" t="n" s="8">
+        <v>1304.0</v>
+      </c>
+      <c r="AI220" t="n" s="8">
+        <v>1322.0</v>
+      </c>
+      <c r="AJ220"/>
     </row>
     <row r="221">
       <c r="A221" t="s" s="7">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B221" t="n" s="10">
         <v>4.4</v>
@@ -22921,10 +25109,20 @@
       <c r="AF221" t="n" s="10">
         <v>8.1</v>
       </c>
+      <c r="AG221" t="n" s="10">
+        <v>5.9</v>
+      </c>
+      <c r="AH221" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AI221" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AJ221"/>
     </row>
     <row r="222">
       <c r="A222" t="s" s="7">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B222" t="n" s="8">
         <v>1776.0</v>
@@ -23019,10 +25217,20 @@
       <c r="AF222" t="n" s="8">
         <v>3699.0</v>
       </c>
+      <c r="AG222" t="n" s="8">
+        <v>2661.0</v>
+      </c>
+      <c r="AH222" t="n" s="8">
+        <v>1709.0</v>
+      </c>
+      <c r="AI222" t="n" s="8">
+        <v>1531.0</v>
+      </c>
+      <c r="AJ222"/>
     </row>
     <row r="223">
       <c r="A223" t="s" s="7">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B223" t="n" s="8">
         <v>38677.0</v>
@@ -23117,10 +25325,20 @@
       <c r="AF223" t="n" s="8">
         <v>41743.0</v>
       </c>
+      <c r="AG223" t="n" s="8">
+        <v>42113.0</v>
+      </c>
+      <c r="AH223" t="n" s="8">
+        <v>42735.0</v>
+      </c>
+      <c r="AI223" t="n" s="8">
+        <v>43778.0</v>
+      </c>
+      <c r="AJ223"/>
     </row>
     <row r="224">
       <c r="A224" t="s" s="7">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B224" t="n" s="8">
         <v>40453.0</v>
@@ -23215,10 +25433,20 @@
       <c r="AF224" t="n" s="8">
         <v>45442.0</v>
       </c>
+      <c r="AG224" t="n" s="8">
+        <v>44774.0</v>
+      </c>
+      <c r="AH224" t="n" s="8">
+        <v>44444.0</v>
+      </c>
+      <c r="AI224" t="n" s="8">
+        <v>45309.0</v>
+      </c>
+      <c r="AJ224"/>
     </row>
     <row r="225">
       <c r="A225" t="s" s="7">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B225" t="n" s="10">
         <v>6.1</v>
@@ -23313,10 +25541,20 @@
       <c r="AF225" t="n" s="10">
         <v>7.5</v>
       </c>
+      <c r="AG225" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="AH225" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AI225" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="AJ225"/>
     </row>
     <row r="226">
       <c r="A226" t="s" s="7">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B226" t="n" s="8">
         <v>520.0</v>
@@ -23411,10 +25649,20 @@
       <c r="AF226" t="n" s="8">
         <v>675.0</v>
       </c>
+      <c r="AG226" t="n" s="8">
+        <v>452.0</v>
+      </c>
+      <c r="AH226" t="n" s="8">
+        <v>345.0</v>
+      </c>
+      <c r="AI226" t="n" s="8">
+        <v>381.0</v>
+      </c>
+      <c r="AJ226"/>
     </row>
     <row r="227">
       <c r="A227" t="s" s="7">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B227" t="n" s="8">
         <v>8019.0</v>
@@ -23509,10 +25757,20 @@
       <c r="AF227" t="n" s="8">
         <v>8267.0</v>
       </c>
+      <c r="AG227" t="n" s="8">
+        <v>8556.0</v>
+      </c>
+      <c r="AH227" t="n" s="8">
+        <v>8768.0</v>
+      </c>
+      <c r="AI227" t="n" s="8">
+        <v>8763.0</v>
+      </c>
+      <c r="AJ227"/>
     </row>
     <row r="228">
       <c r="A228" t="s" s="7">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B228" t="n" s="8">
         <v>8539.0</v>
@@ -23607,10 +25865,20 @@
       <c r="AF228" t="n" s="8">
         <v>8942.0</v>
       </c>
+      <c r="AG228" t="n" s="8">
+        <v>9008.0</v>
+      </c>
+      <c r="AH228" t="n" s="8">
+        <v>9113.0</v>
+      </c>
+      <c r="AI228" t="n" s="8">
+        <v>9144.0</v>
+      </c>
+      <c r="AJ228"/>
     </row>
     <row r="229">
       <c r="A229" t="s" s="7">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B229" t="n" s="10">
         <v>5.5</v>
@@ -23705,10 +25973,20 @@
       <c r="AF229" t="n" s="10">
         <v>7.8</v>
       </c>
+      <c r="AG229" t="n" s="10">
+        <v>5.2</v>
+      </c>
+      <c r="AH229" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AI229" t="n" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="AJ229"/>
     </row>
     <row r="230">
       <c r="A230" t="s" s="7">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B230" t="n" s="8">
         <v>1111.0</v>
@@ -23803,10 +26081,20 @@
       <c r="AF230" t="n" s="8">
         <v>1833.0</v>
       </c>
+      <c r="AG230" t="n" s="8">
+        <v>1235.0</v>
+      </c>
+      <c r="AH230" t="n" s="8">
+        <v>843.0</v>
+      </c>
+      <c r="AI230" t="n" s="8">
+        <v>874.0</v>
+      </c>
+      <c r="AJ230"/>
     </row>
     <row r="231">
       <c r="A231" t="s" s="7">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B231" t="n" s="8">
         <v>19041.0</v>
@@ -23901,10 +26189,20 @@
       <c r="AF231" t="n" s="8">
         <v>21633.0</v>
       </c>
+      <c r="AG231" t="n" s="8">
+        <v>22515.0</v>
+      </c>
+      <c r="AH231" t="n" s="8">
+        <v>23075.0</v>
+      </c>
+      <c r="AI231" t="n" s="8">
+        <v>23164.0</v>
+      </c>
+      <c r="AJ231"/>
     </row>
     <row r="232">
       <c r="A232" t="s" s="7">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B232" t="n" s="8">
         <v>20152.0</v>
@@ -23999,10 +26297,20 @@
       <c r="AF232" t="n" s="8">
         <v>23466.0</v>
       </c>
+      <c r="AG232" t="n" s="8">
+        <v>23750.0</v>
+      </c>
+      <c r="AH232" t="n" s="8">
+        <v>23918.0</v>
+      </c>
+      <c r="AI232" t="n" s="8">
+        <v>24038.0</v>
+      </c>
+      <c r="AJ232"/>
     </row>
     <row r="233">
       <c r="A233" t="s" s="7">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B233" t="n" s="10">
         <v>6.9</v>
@@ -24097,10 +26405,20 @@
       <c r="AF233" t="n" s="10">
         <v>7.6</v>
       </c>
+      <c r="AG233" t="n" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="AH233" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="AI233" t="n" s="10">
+        <v>4.6</v>
+      </c>
+      <c r="AJ233"/>
     </row>
     <row r="234">
       <c r="A234" t="s" s="7">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B234" t="n" s="8">
         <v>1136.0</v>
@@ -24195,10 +26513,20 @@
       <c r="AF234" t="n" s="8">
         <v>1192.0</v>
       </c>
+      <c r="AG234" t="n" s="8">
+        <v>760.0</v>
+      </c>
+      <c r="AH234" t="n" s="8">
+        <v>652.0</v>
+      </c>
+      <c r="AI234" t="n" s="8">
+        <v>747.0</v>
+      </c>
+      <c r="AJ234"/>
     </row>
     <row r="235">
       <c r="A235" t="s" s="7">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B235" t="n" s="8">
         <v>15361.0</v>
@@ -24293,10 +26621,20 @@
       <c r="AF235" t="n" s="8">
         <v>14518.0</v>
       </c>
+      <c r="AG235" t="n" s="8">
+        <v>15111.0</v>
+      </c>
+      <c r="AH235" t="n" s="8">
+        <v>15483.0</v>
+      </c>
+      <c r="AI235" t="n" s="8">
+        <v>15551.0</v>
+      </c>
+      <c r="AJ235"/>
     </row>
     <row r="236">
       <c r="A236" t="s" s="7">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B236" t="n" s="8">
         <v>16497.0</v>
@@ -24391,10 +26729,20 @@
       <c r="AF236" t="n" s="8">
         <v>15710.0</v>
       </c>
+      <c r="AG236" t="n" s="8">
+        <v>15871.0</v>
+      </c>
+      <c r="AH236" t="n" s="8">
+        <v>16135.0</v>
+      </c>
+      <c r="AI236" t="n" s="8">
+        <v>16298.0</v>
+      </c>
+      <c r="AJ236"/>
     </row>
     <row r="237">
       <c r="A237" t="s" s="7">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B237" t="n" s="10">
         <v>8.3</v>
@@ -24489,10 +26837,20 @@
       <c r="AF237" t="n" s="10">
         <v>8.6</v>
       </c>
+      <c r="AG237" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="AH237" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="AI237" t="n" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="AJ237"/>
     </row>
     <row r="238">
       <c r="A238" t="s" s="7">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B238" t="n" s="8">
         <v>1318.0</v>
@@ -24587,10 +26945,20 @@
       <c r="AF238" t="n" s="8">
         <v>1424.0</v>
       </c>
+      <c r="AG238" t="n" s="8">
+        <v>1010.0</v>
+      </c>
+      <c r="AH238" t="n" s="8">
+        <v>705.0</v>
+      </c>
+      <c r="AI238" t="n" s="8">
+        <v>732.0</v>
+      </c>
+      <c r="AJ238"/>
     </row>
     <row r="239">
       <c r="A239" t="s" s="7">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B239" t="n" s="8">
         <v>14587.0</v>
@@ -24685,10 +27053,20 @@
       <c r="AF239" t="n" s="8">
         <v>15105.0</v>
       </c>
+      <c r="AG239" t="n" s="8">
+        <v>15737.0</v>
+      </c>
+      <c r="AH239" t="n" s="8">
+        <v>16144.0</v>
+      </c>
+      <c r="AI239" t="n" s="8">
+        <v>16409.0</v>
+      </c>
+      <c r="AJ239"/>
     </row>
     <row r="240">
       <c r="A240" t="s" s="7">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B240" t="n" s="8">
         <v>15905.0</v>
@@ -24783,10 +27161,20 @@
       <c r="AF240" t="n" s="8">
         <v>16529.0</v>
       </c>
+      <c r="AG240" t="n" s="8">
+        <v>16747.0</v>
+      </c>
+      <c r="AH240" t="n" s="8">
+        <v>16849.0</v>
+      </c>
+      <c r="AI240" t="n" s="8">
+        <v>17141.0</v>
+      </c>
+      <c r="AJ240"/>
     </row>
     <row r="241">
       <c r="A241" t="s" s="7">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B241" t="n" s="10">
         <v>8.7</v>
@@ -24881,10 +27269,20 @@
       <c r="AF241" t="n" s="10">
         <v>8.3</v>
       </c>
+      <c r="AG241" t="n" s="10">
+        <v>5.6</v>
+      </c>
+      <c r="AH241" t="n" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="AI241" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AJ241"/>
     </row>
     <row r="242">
       <c r="A242" t="s" s="7">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B242" t="n" s="8">
         <v>1543.0</v>
@@ -24979,10 +27377,20 @@
       <c r="AF242" t="n" s="8">
         <v>1157.0</v>
       </c>
+      <c r="AG242" t="n" s="8">
+        <v>785.0</v>
+      </c>
+      <c r="AH242" t="n" s="8">
+        <v>584.0</v>
+      </c>
+      <c r="AI242" t="n" s="8">
+        <v>624.0</v>
+      </c>
+      <c r="AJ242"/>
     </row>
     <row r="243">
       <c r="A243" t="s" s="7">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B243" t="n" s="8">
         <v>16229.0</v>
@@ -25077,10 +27485,20 @@
       <c r="AF243" t="n" s="8">
         <v>12721.0</v>
       </c>
+      <c r="AG243" t="n" s="8">
+        <v>13159.0</v>
+      </c>
+      <c r="AH243" t="n" s="8">
+        <v>13508.0</v>
+      </c>
+      <c r="AI243" t="n" s="8">
+        <v>13537.0</v>
+      </c>
+      <c r="AJ243"/>
     </row>
     <row r="244">
       <c r="A244" t="s" s="7">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B244" t="n" s="8">
         <v>17772.0</v>
@@ -25175,10 +27593,20 @@
       <c r="AF244" t="n" s="8">
         <v>13878.0</v>
       </c>
+      <c r="AG244" t="n" s="8">
+        <v>13944.0</v>
+      </c>
+      <c r="AH244" t="n" s="8">
+        <v>14092.0</v>
+      </c>
+      <c r="AI244" t="n" s="8">
+        <v>14161.0</v>
+      </c>
+      <c r="AJ244"/>
     </row>
     <row r="245">
       <c r="A245" t="s" s="7">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B245" t="n" s="10">
         <v>6.1</v>
@@ -25273,10 +27701,20 @@
       <c r="AF245" t="n" s="10">
         <v>7.5</v>
       </c>
+      <c r="AG245" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="AH245" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AI245" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AJ245"/>
     </row>
     <row r="246">
       <c r="A246" t="s" s="7">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B246" t="n" s="8">
         <v>565.0</v>
@@ -25371,10 +27809,20 @@
       <c r="AF246" t="n" s="8">
         <v>1013.0</v>
       </c>
+      <c r="AG246" t="n" s="8">
+        <v>679.0</v>
+      </c>
+      <c r="AH246" t="n" s="8">
+        <v>454.0</v>
+      </c>
+      <c r="AI246" t="n" s="8">
+        <v>460.0</v>
+      </c>
+      <c r="AJ246"/>
     </row>
     <row r="247">
       <c r="A247" t="s" s="7">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B247" t="n" s="8">
         <v>8625.0</v>
@@ -25469,10 +27917,20 @@
       <c r="AF247" t="n" s="8">
         <v>12412.0</v>
       </c>
+      <c r="AG247" t="n" s="8">
+        <v>12994.0</v>
+      </c>
+      <c r="AH247" t="n" s="8">
+        <v>13492.0</v>
+      </c>
+      <c r="AI247" t="n" s="8">
+        <v>13554.0</v>
+      </c>
+      <c r="AJ247"/>
     </row>
     <row r="248">
       <c r="A248" t="s" s="7">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="B248" t="n" s="8">
         <v>9190.0</v>
@@ -25567,10 +28025,20 @@
       <c r="AF248" t="n" s="8">
         <v>13425.0</v>
       </c>
+      <c r="AG248" t="n" s="8">
+        <v>13673.0</v>
+      </c>
+      <c r="AH248" t="n" s="8">
+        <v>13946.0</v>
+      </c>
+      <c r="AI248" t="n" s="8">
+        <v>14014.0</v>
+      </c>
+      <c r="AJ248"/>
     </row>
     <row r="249">
       <c r="A249" t="s" s="7">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B249" t="n" s="10">
         <v>11.9</v>
@@ -25665,10 +28133,20 @@
       <c r="AF249" t="n" s="10">
         <v>10.6</v>
       </c>
+      <c r="AG249" t="n" s="10">
+        <v>6.6</v>
+      </c>
+      <c r="AH249" t="n" s="10">
+        <v>5.5</v>
+      </c>
+      <c r="AI249" t="n" s="10">
+        <v>6.2</v>
+      </c>
+      <c r="AJ249"/>
     </row>
     <row r="250">
       <c r="A250" t="s" s="7">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B250" t="n" s="8">
         <v>599.0</v>
@@ -25763,10 +28241,20 @@
       <c r="AF250" t="n" s="8">
         <v>385.0</v>
       </c>
+      <c r="AG250" t="n" s="8">
+        <v>230.0</v>
+      </c>
+      <c r="AH250" t="n" s="8">
+        <v>192.0</v>
+      </c>
+      <c r="AI250" t="n" s="8">
+        <v>215.0</v>
+      </c>
+      <c r="AJ250"/>
     </row>
     <row r="251">
       <c r="A251" t="s" s="7">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B251" t="n" s="8">
         <v>4431.0</v>
@@ -25861,10 +28349,20 @@
       <c r="AF251" t="n" s="8">
         <v>3249.0</v>
       </c>
+      <c r="AG251" t="n" s="8">
+        <v>3272.0</v>
+      </c>
+      <c r="AH251" t="n" s="8">
+        <v>3296.0</v>
+      </c>
+      <c r="AI251" t="n" s="8">
+        <v>3245.0</v>
+      </c>
+      <c r="AJ251"/>
     </row>
     <row r="252">
       <c r="A252" t="s" s="7">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B252" t="n" s="8">
         <v>5030.0</v>
@@ -25959,10 +28457,20 @@
       <c r="AF252" t="n" s="8">
         <v>3634.0</v>
       </c>
+      <c r="AG252" t="n" s="8">
+        <v>3502.0</v>
+      </c>
+      <c r="AH252" t="n" s="8">
+        <v>3488.0</v>
+      </c>
+      <c r="AI252" t="n" s="8">
+        <v>3460.0</v>
+      </c>
+      <c r="AJ252"/>
     </row>
     <row r="253">
       <c r="A253" t="s" s="7">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B253" t="n" s="10">
         <v>6.9</v>
@@ -26057,10 +28565,20 @@
       <c r="AF253" t="n" s="10">
         <v>5.8</v>
       </c>
+      <c r="AG253" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AH253" t="n" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AI253" t="n" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AJ253"/>
     </row>
     <row r="254">
       <c r="A254" t="s" s="7">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B254" t="n" s="8">
         <v>256.0</v>
@@ -26155,10 +28673,20 @@
       <c r="AF254" t="n" s="8">
         <v>296.0</v>
       </c>
+      <c r="AG254" t="n" s="8">
+        <v>199.0</v>
+      </c>
+      <c r="AH254" t="n" s="8">
+        <v>140.0</v>
+      </c>
+      <c r="AI254" t="n" s="8">
+        <v>144.0</v>
+      </c>
+      <c r="AJ254"/>
     </row>
     <row r="255">
       <c r="A255" t="s" s="7">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B255" t="n" s="8">
         <v>3479.0</v>
@@ -26253,10 +28781,20 @@
       <c r="AF255" t="n" s="8">
         <v>4850.0</v>
       </c>
+      <c r="AG255" t="n" s="8">
+        <v>5077.0</v>
+      </c>
+      <c r="AH255" t="n" s="8">
+        <v>5277.0</v>
+      </c>
+      <c r="AI255" t="n" s="8">
+        <v>5303.0</v>
+      </c>
+      <c r="AJ255"/>
     </row>
     <row r="256">
       <c r="A256" t="s" s="7">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B256" t="n" s="8">
         <v>3735.0</v>
@@ -26351,10 +28889,20 @@
       <c r="AF256" t="n" s="8">
         <v>5146.0</v>
       </c>
+      <c r="AG256" t="n" s="8">
+        <v>5276.0</v>
+      </c>
+      <c r="AH256" t="n" s="8">
+        <v>5417.0</v>
+      </c>
+      <c r="AI256" t="n" s="8">
+        <v>5447.0</v>
+      </c>
+      <c r="AJ256"/>
     </row>
     <row r="257">
       <c r="A257" t="s" s="7">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B257" t="n" s="10">
         <v>4.2</v>
@@ -26449,10 +28997,20 @@
       <c r="AF257" t="n" s="10">
         <v>7.5</v>
       </c>
+      <c r="AG257" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="AH257" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="AI257" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="AJ257"/>
     </row>
     <row r="258">
       <c r="A258" t="s" s="7">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B258" t="n" s="8">
         <v>261.0</v>
@@ -26547,10 +29105,20 @@
       <c r="AF258" t="n" s="8">
         <v>351.0</v>
       </c>
+      <c r="AG258" t="n" s="8">
+        <v>229.0</v>
+      </c>
+      <c r="AH258" t="n" s="8">
+        <v>184.0</v>
+      </c>
+      <c r="AI258" t="n" s="8">
+        <v>203.0</v>
+      </c>
+      <c r="AJ258"/>
     </row>
     <row r="259">
       <c r="A259" t="s" s="7">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B259" t="n" s="8">
         <v>5894.0</v>
@@ -26645,10 +29213,20 @@
       <c r="AF259" t="n" s="8">
         <v>4310.0</v>
       </c>
+      <c r="AG259" t="n" s="8">
+        <v>4332.0</v>
+      </c>
+      <c r="AH259" t="n" s="8">
+        <v>4402.0</v>
+      </c>
+      <c r="AI259" t="n" s="8">
+        <v>4618.0</v>
+      </c>
+      <c r="AJ259"/>
     </row>
     <row r="260">
       <c r="A260" t="s" s="7">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B260" t="n" s="8">
         <v>6155.0</v>
@@ -26743,6 +29321,16 @@
       <c r="AF260" t="n" s="8">
         <v>4661.0</v>
       </c>
+      <c r="AG260" t="n" s="8">
+        <v>4561.0</v>
+      </c>
+      <c r="AH260" t="n" s="8">
+        <v>4586.0</v>
+      </c>
+      <c r="AI260" t="n" s="8">
+        <v>4821.0</v>
+      </c>
+      <c r="AJ260"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -26753,7 +29341,7 @@
   <pageSetup orientation="landscape"/>
   <headerFooter>
     <oddHeader>&amp;CBureau of Labor Statistics</oddHeader>
-    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: December 27, 2024 (01:18:32 AM)</oddFooter>
+    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: January 5, 2025 (02:40:07 PM)</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId3"/>
